--- a/src/valheim-food.xlsx
+++ b/src/valheim-food.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -74,27 +74,33 @@
     <t xml:space="preserve">mushroom</t>
   </si>
   <si>
+    <t xml:space="preserve">dandelion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coal</t>
+  </si>
+  <si>
     <t xml:space="preserve">blueberries</t>
   </si>
   <si>
     <t xml:space="preserve">carrot</t>
   </si>
   <si>
+    <t xml:space="preserve">yellow mushroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thistle</t>
+  </si>
+  <si>
     <t xml:space="preserve">turnip</t>
   </si>
   <si>
-    <t xml:space="preserve">yellow mushroom</t>
-  </si>
-  <si>
     <t xml:space="preserve">ooze</t>
   </si>
   <si>
     <t xml:space="preserve">entrails</t>
   </si>
   <si>
-    <t xml:space="preserve">thistle</t>
-  </si>
-  <si>
     <t xml:space="preserve">bloodbag</t>
   </si>
   <si>
@@ -185,6 +191,18 @@
     <t xml:space="preserve">minced meat sauce</t>
   </si>
   <si>
+    <t xml:space="preserve">minor healing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minor stamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poison resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasty</t>
+  </si>
+  <si>
     <t xml:space="preserve">turnip stew</t>
   </si>
   <si>
@@ -203,6 +221,12 @@
     <t xml:space="preserve">serpent stew</t>
   </si>
   <si>
+    <t xml:space="preserve">frost resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium healing</t>
+  </si>
+  <si>
     <t xml:space="preserve">onion soup</t>
   </si>
   <si>
@@ -236,6 +260,12 @@
     <t xml:space="preserve">bread</t>
   </si>
   <si>
+    <t xml:space="preserve">barley wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium stamina</t>
+  </si>
+  <si>
     <t xml:space="preserve">cooked egg</t>
   </si>
   <si>
@@ -291,6 +321,15 @@
   </si>
   <si>
     <t xml:space="preserve">b: 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingering stamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">major healing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minor eitr</t>
   </si>
   <si>
     <t xml:space="preserve">https://valheim.fandom.com/wiki/Food</t>
@@ -657,19 +696,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD50"/>
+  <dimension ref="A1:XFD61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="2.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="4.71"/>
@@ -677,8 +716,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="2" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="11" style="2" width="2.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="44" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="11" style="2" width="2.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="46" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -733,22 +772,22 @@
       <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Y1" s="8" t="s">
@@ -760,28 +799,28 @@
       <c r="AA1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="AD1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="9" t="s">
         <v>30</v>
       </c>
       <c r="AG1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="10" t="s">
         <v>33</v>
       </c>
       <c r="AJ1" s="11" t="s">
@@ -805,15 +844,19 @@
       <c r="AP1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AMF1" s="13"/>
-      <c r="AMG1" s="13"/>
-      <c r="XFA1" s="0"/>
-      <c r="XFB1" s="0"/>
-      <c r="XFC1" s="0"/>
-      <c r="XFD1" s="0"/>
+      <c r="AR1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AMH1" s="13"/>
+      <c r="AMI1" s="13"/>
+      <c r="XFC1" s="13"/>
+      <c r="XFD1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
@@ -838,7 +881,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>1</v>
@@ -875,7 +918,7 @@
         <v>23.3333333333333</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>1</v>
@@ -889,7 +932,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15" t="n">
         <v>1</v>
@@ -910,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>2</v>
@@ -924,7 +967,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>1</v>
@@ -947,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>2</v>
@@ -961,7 +1004,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="15" t="n">
         <v>1</v>
@@ -982,7 +1025,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>2</v>
@@ -996,7 +1039,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" s="15" t="n">
         <v>1</v>
@@ -1019,7 +1062,7 @@
         <v>7.66666666666667</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>2</v>
@@ -1036,7 +1079,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="15" t="n">
         <v>1</v>
@@ -1057,7 +1100,7 @@
         <v>7.5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>2</v>
@@ -1092,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>1</v>
@@ -1106,7 +1149,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="17" t="n">
         <v>2</v>
@@ -1127,7 +1170,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>1</v>
@@ -1135,13 +1178,13 @@
       <c r="J10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="U10" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="17" t="n">
         <v>2</v>
@@ -1162,7 +1205,7 @@
         <v>21.3333333333333</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>1</v>
@@ -1170,13 +1213,13 @@
       <c r="J11" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="V11" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>2</v>
@@ -1199,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>2</v>
@@ -1210,13 +1253,13 @@
       <c r="R12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="V12" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>2</v>
@@ -1239,7 +1282,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>2</v>
@@ -1250,13 +1293,13 @@
       <c r="K13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="U13" s="2" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="17" t="n">
         <v>2</v>
@@ -1279,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>3</v>
@@ -1290,16 +1333,16 @@
       <c r="O14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="S14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T14" s="2" t="n">
+      <c r="U14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" s="17" t="n">
         <v>2</v>
@@ -1322,7 +1365,7 @@
         <v>5.2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>3</v>
@@ -1336,526 +1379,438 @@
       <c r="N15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="V15" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <f aca="false">D16/J16*10</f>
-        <v>7.2</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <f aca="false">F16/J16*10</f>
-        <v>22</v>
-      </c>
+      <c r="A16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17"/>
       <c r="H16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="N16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="S16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <f aca="false">D17/J17*10</f>
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <f aca="false">F17/J17*10</f>
-        <v>30</v>
-      </c>
+      <c r="A17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="17"/>
       <c r="H17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="V17" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="W17" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <f aca="false">D18/J18*10</f>
+      <c r="A18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="H18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <f aca="false">F18/J18*10</f>
-        <v>25</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" s="2" t="n">
-        <v>1</v>
+      <c r="L18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X18" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <f aca="false">D19/J19*10</f>
-        <v>22</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <f aca="false">F19/J19*10</f>
-        <v>7.2</v>
-      </c>
+      <c r="A19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="17"/>
       <c r="H19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="5" t="n">
-        <v>0.25</v>
+        <v>8</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="U19" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B20" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="D20" s="2" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3" t="n">
         <f aca="false">D20/J20*10</f>
-        <v>25</v>
+        <v>7.2</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G20" s="3" t="n">
         <f aca="false">F20/J20*10</f>
-        <v>8.5</v>
+        <v>22</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B21" s="19" t="n">
         <v>3</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3" t="n">
         <f aca="false">D21/J21*10</f>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3" t="n">
         <f aca="false">F21/J21*10</f>
-        <v>9.2</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="W21" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22" s="19" t="n">
         <v>3</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="2" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E22" s="3" t="n">
         <f aca="false">D22/J22*10</f>
-        <v>26.6666666666667</v>
+        <v>8</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G22" s="3" t="n">
         <f aca="false">F22/J22*10</f>
-        <v>8.66666666666667</v>
+        <v>25</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" s="21"/>
+      <c r="A23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="D23" s="2" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E23" s="3" t="n">
         <f aca="false">D23/J23*10</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G23" s="3" t="n">
         <f aca="false">F23/J23*10</f>
-        <v>26.6666666666667</v>
+        <v>7.2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB23" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X23" s="5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA23" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>1</v>
-      </c>
+      <c r="A24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="19"/>
       <c r="D24" s="2" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E24" s="3" t="n">
         <f aca="false">D24/J24*10</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G24" s="3" t="n">
         <f aca="false">F24/J24*10</f>
-        <v>30</v>
+        <v>8.5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>20</v>
       </c>
+      <c r="L24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="AB24" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" s="21"/>
+      <c r="A25" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="2" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E25" s="3" t="n">
         <f aca="false">D25/J25*10</f>
-        <v>22.5</v>
+        <v>28</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G25" s="3" t="n">
         <f aca="false">F25/J25*10</f>
-        <v>7.5</v>
+        <v>9.2</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>3</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AC25" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C26" s="21"/>
+      <c r="A26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="19"/>
       <c r="D26" s="2" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E26" s="3" t="n">
         <f aca="false">D26/J26*10</f>
-        <v>11</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G26" s="3" t="n">
         <f aca="false">F26/J26*10</f>
-        <v>11</v>
+        <v>8.66666666666667</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="21" t="n">
+      <c r="A27" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="H27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="H28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <f aca="false">D27/J27*10</f>
-        <v>26</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G27" s="3" t="n">
-        <f aca="false">F27/J27*10</f>
-        <v>8.4</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="R27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="21" t="n">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <f aca="false">D28/J28*10</f>
-        <v>8.4</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <f aca="false">F28/J28*10</f>
-        <v>26</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD28" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3" t="n">
         <f aca="false">D29/J29*10</f>
-        <v>8.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>40</v>
@@ -1865,7 +1820,7 @@
         <v>26.6666666666667</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
@@ -1873,227 +1828,222 @@
       <c r="J29" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AE29" s="2" t="n">
+      <c r="AD29" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" s="23"/>
+      <c r="A30" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="D30" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E30" s="3" t="n">
         <f aca="false">D30/J30*10</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="G30" s="3" t="n">
         <f aca="false">F30/J30*10</f>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="AF30" s="2" t="n">
-        <v>1</v>
+      <c r="AD30" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>1</v>
-      </c>
+      <c r="A31" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="21"/>
       <c r="D31" s="2" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E31" s="3" t="n">
         <f aca="false">D31/J31*10</f>
-        <v>28</v>
+        <v>22.5</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G31" s="3" t="n">
         <f aca="false">F31/J31*10</f>
-        <v>9.2</v>
+        <v>7.5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE31" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="J31" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="P31" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG31" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>1</v>
-      </c>
+      <c r="C32" s="21"/>
       <c r="D32" s="2" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E32" s="3" t="n">
         <f aca="false">D32/J32*10</f>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G32" s="3" t="n">
         <f aca="false">F32/J32*10</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="L32" s="2" t="n">
+        <v>0.5</v>
+      </c>
       <c r="AE32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG32" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="21" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="D33" s="2" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3" t="n">
         <f aca="false">D33/J33*10</f>
-        <v>8.33333333333333</v>
+        <v>26</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="G33" s="3" t="n">
         <f aca="false">F33/J33*10</f>
+        <v>8.4</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG33" s="2" t="n">
+      <c r="R33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="21" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>1</v>
-      </c>
+      <c r="C34" s="21"/>
       <c r="D34" s="2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="3" t="n">
         <f aca="false">D34/J34*10</f>
-        <v>9.2</v>
+        <v>8.4</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G34" s="3" t="n">
         <f aca="false">F34/J34*10</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AG34" s="2" t="n">
+      <c r="Q34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF34" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="23" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="2" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E35" s="3" t="n">
         <f aca="false">D35/J35*10</f>
-        <v>17.5</v>
+        <v>8.66666666666667</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G35" s="3" t="n">
         <f aca="false">F35/J35*10</f>
-        <v>6</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>44</v>
@@ -2102,510 +2052,452 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH35" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG35" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C36" s="25"/>
+      <c r="A36" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" s="23"/>
       <c r="D36" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E36" s="3" t="n">
         <f aca="false">D36/J36*10</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G36" s="3" t="n">
         <f aca="false">F36/J36*10</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J36" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="AI36" s="2" t="n">
+      <c r="AH36" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C37" s="25"/>
+      <c r="A37" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>1</v>
+      </c>
       <c r="D37" s="2" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E37" s="3" t="n">
         <f aca="false">D37/J37*10</f>
-        <v>16.6666666666667</v>
+        <v>28</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G37" s="3" t="n">
         <f aca="false">F37/J37*10</f>
-        <v>16.6666666666667</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>74</v>
+        <v>9.2</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ37" s="2" t="n">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="P37" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI37" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>75</v>
-      </c>
-      <c r="B38" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="2" t="n">
-        <v>23</v>
       </c>
       <c r="E38" s="3" t="n">
         <f aca="false">D38/J38*10</f>
-        <v>15.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38" s="3" t="n">
         <f aca="false">F38/J38*10</f>
-        <v>16.6666666666667</v>
+        <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK38" s="2" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="AG38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI38" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C39" s="25"/>
+      <c r="A39" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" s="23"/>
       <c r="D39" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E39" s="3" t="n">
         <f aca="false">D39/J39*10</f>
-        <v>10</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G39" s="3" t="n">
         <f aca="false">F39/J39*10</f>
-        <v>10</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP39" s="2" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="X39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI39" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C40" s="25"/>
+      <c r="A40" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>1</v>
+      </c>
       <c r="D40" s="2" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E40" s="3" t="n">
         <f aca="false">D40/J40*10</f>
-        <v>30</v>
+        <v>9.2</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G40" s="3" t="n">
         <f aca="false">F40/J40*10</f>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J40" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL40" s="2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="E41" s="3" t="n">
-        <f aca="false">D41/J41*10</f>
-        <v>30</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="G41" s="3" t="n">
-        <f aca="false">F41/J41*10</f>
-        <v>10</v>
-      </c>
+      <c r="A41" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" s="23"/>
       <c r="H41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG41" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI41" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="J41" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM41" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="E42" s="3" t="n">
-        <f aca="false">D42/J42*10</f>
-        <v>26.6666666666667</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="G42" s="3" t="n">
-        <f aca="false">F42/J42*10</f>
-        <v>8.66666666666667</v>
-      </c>
+      <c r="C42" s="23"/>
       <c r="H42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM42" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="W42" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG42" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B43" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="C43" s="25" t="s">
-        <v>1</v>
-      </c>
+      <c r="C43" s="25"/>
       <c r="D43" s="2" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E43" s="3" t="n">
         <f aca="false">D43/J43*10</f>
-        <v>26.6666666666667</v>
+        <v>17.5</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G43" s="3" t="n">
         <f aca="false">F43/J43*10</f>
-        <v>8.66666666666667</v>
+        <v>6</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="L43" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK43" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ43" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="C44" s="25" t="s">
-        <v>1</v>
-      </c>
+      <c r="C44" s="25"/>
       <c r="D44" s="2" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E44" s="3" t="n">
         <f aca="false">D44/J44*10</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G44" s="3" t="n">
         <f aca="false">F44/J44*10</f>
-        <v>11.2</v>
+        <v>10</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>5</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="T44" s="2" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AK44" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM44" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>1</v>
-      </c>
+      <c r="C45" s="25"/>
       <c r="D45" s="2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="3" t="n">
         <f aca="false">D45/J45*10</f>
-        <v>10.4</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G45" s="3" t="n">
         <f aca="false">F45/J45*10</f>
-        <v>32</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>42</v>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK45" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL45" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B46" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="C46" s="25" t="s">
-        <v>1</v>
-      </c>
+      <c r="C46" s="25"/>
       <c r="D46" s="2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E46" s="3" t="n">
         <f aca="false">D46/J46*10</f>
-        <v>11.2</v>
+        <v>15.3333333333333</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="G46" s="3" t="n">
         <f aca="false">F46/J46*10</f>
-        <v>34</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH46" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK46" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="AM46" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B47" s="25" t="n">
         <v>6</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E47" s="3" t="n">
         <f aca="false">D47/J47*10</f>
         <v>10</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G47" s="3" t="n">
         <f aca="false">F47/J47*10</f>
-        <v>30</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG47" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ47" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR47" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>1</v>
-      </c>
+      <c r="C48" s="25"/>
       <c r="D48" s="2" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E48" s="3" t="n">
         <f aca="false">D48/J48*10</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G48" s="3" t="n">
         <f aca="false">F48/J48*10</f>
-        <v>4.8</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>85</v>
+        <v>10</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="U48" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ48" s="2" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AN48" s="2" t="n">
         <v>1</v>
@@ -2613,43 +2505,37 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="25" t="n">
         <v>6</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="2" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E49" s="3" t="n">
         <f aca="false">D49/J49*10</f>
-        <v>10.8</v>
+        <v>30</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G49" s="3" t="n">
         <f aca="false">F49/J49*10</f>
-        <v>5.2</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG49" s="2" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AO49" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP49" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,36 +2549,436 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E50" s="3" t="n">
         <f aca="false">D50/J50*10</f>
-        <v>9.33333333333333</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G50" s="3" t="n">
         <f aca="false">F50/J50*10</f>
-        <v>4.66666666666667</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>89</v>
+        <v>8.66666666666667</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J50" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AJ50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP50" s="2" t="n">
-        <v>1</v>
+      <c r="AH50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <f aca="false">D51/J51*10</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <f aca="false">F51/J51*10</f>
+        <v>8.66666666666667</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <f aca="false">D52/J52*10</f>
+        <v>34</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <f aca="false">F52/J52*10</f>
+        <v>11.2</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="V52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM52" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO52" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <f aca="false">D53/J53*10</f>
+        <v>10.4</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <f aca="false">F53/J53*10</f>
+        <v>32</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM53" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <f aca="false">D54/J54*10</f>
+        <v>11.2</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <f aca="false">F54/J54*10</f>
+        <v>34</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM54" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <f aca="false">D55/J55*10</f>
+        <v>10</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <f aca="false">F55/J55*10</f>
+        <v>30</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS55" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <f aca="false">D56/J56*10</f>
+        <v>10</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <f aca="false">F56/J56*10</f>
+        <v>4.8</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL56" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP56" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" s="25"/>
+      <c r="D57" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <f aca="false">D57/J57*10</f>
+        <v>10.8</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <f aca="false">F57/J57*10</f>
+        <v>5.2</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI57" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ57" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR57" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <f aca="false">D58/J58*10</f>
+        <v>9.33333333333333</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <f aca="false">F58/J58*10</f>
+        <v>4.66666666666667</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR58" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="H59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG59" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM59" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP59" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="H60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP60" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR60" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="H61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL61" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ61" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2724,7 +3010,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,7 +3020,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="27" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -2742,7 +3028,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="28" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -2750,7 +3036,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="29" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3</v>
@@ -2758,7 +3044,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="30" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4</v>
@@ -2766,7 +3052,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="31" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5</v>
@@ -2774,7 +3060,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="32" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>6</v>

--- a/src/valheim-food.xlsx
+++ b/src/valheim-food.xlsx
@@ -699,11 +699,11 @@
   <dimension ref="A1:XFD61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S2" activeCellId="0" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="J61" activeCellId="0" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1394,6 +1394,9 @@
       <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J16" s="2" t="n">
+        <v>0.16</v>
+      </c>
       <c r="K16" s="2" t="n">
         <v>10</v>
       </c>
@@ -1418,6 +1421,9 @@
       <c r="H17" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J17" s="2" t="n">
+        <v>0.03</v>
+      </c>
       <c r="K17" s="2" t="n">
         <v>10</v>
       </c>
@@ -1439,6 +1445,9 @@
       <c r="H18" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J18" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="L18" s="2" t="n">
         <v>10</v>
       </c>
@@ -1463,6 +1472,9 @@
       <c r="H19" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J19" s="2" t="n">
+        <v>0.16</v>
+      </c>
       <c r="K19" s="2" t="n">
         <v>10</v>
       </c>
@@ -1760,6 +1772,9 @@
       <c r="H27" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J27" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="L27" s="2" t="n">
         <v>10</v>
       </c>
@@ -1784,6 +1799,9 @@
       <c r="H28" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J28" s="2" t="n">
+        <v>0.16</v>
+      </c>
       <c r="K28" s="2" t="n">
         <v>10</v>
       </c>
@@ -2265,6 +2283,9 @@
       <c r="H41" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J41" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="AG41" s="2" t="n">
         <v>10</v>
       </c>
@@ -2283,6 +2304,9 @@
       <c r="H42" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J42" s="2" t="n">
+        <v>0.03</v>
+      </c>
       <c r="K42" s="2" t="n">
         <v>10</v>
       </c>
@@ -2926,6 +2950,9 @@
       <c r="H59" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J59" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="AG59" s="2" t="n">
         <v>10</v>
       </c>
@@ -2947,6 +2974,9 @@
       <c r="H60" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J60" s="2" t="n">
+        <v>0.16</v>
+      </c>
       <c r="L60" s="2" t="n">
         <v>10</v>
       </c>
@@ -2967,6 +2997,9 @@
       <c r="C61" s="25"/>
       <c r="H61" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>0.16</v>
       </c>
       <c r="L61" s="2" t="n">
         <v>10</v>
@@ -3000,7 +3033,7 @@
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="J61 E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/valheim-food.xlsx
+++ b/src/valheim-food.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="url" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="url" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="111">
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -691,6 +694,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -699,11 +808,11 @@
   <dimension ref="A1:XFD61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
-      <selection pane="bottomRight" activeCell="J61" activeCellId="0" sqref="J61"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -721,137 +830,140 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AMH1" s="13"/>
       <c r="AMI1" s="13"/>
@@ -860,7 +972,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="15" t="n">
         <v>1</v>
@@ -881,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>1</v>
@@ -895,13 +1007,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="15" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>8</v>
@@ -918,7 +1030,7 @@
         <v>23.3333333333333</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>1</v>
@@ -932,7 +1044,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="15" t="n">
         <v>1</v>
@@ -953,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>2</v>
@@ -967,13 +1079,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>30</v>
@@ -990,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>2</v>
@@ -1004,7 +1116,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="15" t="n">
         <v>1</v>
@@ -1025,7 +1137,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>2</v>
@@ -1039,13 +1151,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="15" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>23</v>
@@ -1062,7 +1174,7 @@
         <v>7.66666666666667</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>2</v>
@@ -1079,7 +1191,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="15" t="n">
         <v>1</v>
@@ -1100,7 +1212,7 @@
         <v>7.5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>2</v>
@@ -1114,7 +1226,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="15" t="n">
         <v>1</v>
@@ -1135,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>1</v>
@@ -1149,7 +1261,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="17" t="n">
         <v>2</v>
@@ -1170,7 +1282,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>1</v>
@@ -1184,7 +1296,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="17" t="n">
         <v>2</v>
@@ -1205,7 +1317,7 @@
         <v>21.3333333333333</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>1</v>
@@ -1219,13 +1331,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>15</v>
@@ -1242,7 +1354,7 @@
         <v>18</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>2</v>
@@ -1259,13 +1371,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>2</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>14</v>
@@ -1282,7 +1394,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>2</v>
@@ -1299,13 +1411,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="17" t="n">
         <v>2</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>45</v>
@@ -1322,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>3</v>
@@ -1342,13 +1454,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="17" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>40</v>
@@ -1365,7 +1477,7 @@
         <v>5.2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>3</v>
@@ -1385,14 +1497,14 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="17" t="n">
         <v>2</v>
       </c>
       <c r="C16" s="17"/>
       <c r="H16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>0.16</v>
@@ -1412,14 +1524,14 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="17" t="n">
         <v>2</v>
       </c>
       <c r="C17" s="17"/>
       <c r="H17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J17" s="2" t="n">
         <v>0.03</v>
@@ -1436,14 +1548,14 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="17" t="n">
         <v>2</v>
       </c>
       <c r="C18" s="17"/>
       <c r="H18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>10</v>
@@ -1463,14 +1575,14 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="17" t="n">
         <v>2</v>
       </c>
       <c r="C19" s="17"/>
       <c r="H19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J19" s="2" t="n">
         <v>0.16</v>
@@ -1487,13 +1599,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="19" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>18</v>
@@ -1510,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>2</v>
@@ -1527,7 +1639,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="19" t="n">
         <v>3</v>
@@ -1548,7 +1660,7 @@
         <v>30</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>1</v>
@@ -1562,7 +1674,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="19" t="n">
         <v>3</v>
@@ -1583,7 +1695,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>1</v>
@@ -1603,13 +1715,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23" s="19" t="n">
         <v>3</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>55</v>
@@ -1626,7 +1738,7 @@
         <v>7.2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>3</v>
@@ -1646,7 +1758,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="19" t="n">
         <v>3</v>
@@ -1667,7 +1779,7 @@
         <v>8.5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>3</v>
@@ -1687,7 +1799,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="19" t="n">
         <v>3</v>
@@ -1708,7 +1820,7 @@
         <v>9.2</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>3</v>
@@ -1722,7 +1834,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" s="19" t="n">
         <v>3</v>
@@ -1743,7 +1855,7 @@
         <v>8.66666666666667</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>4</v>
@@ -1763,14 +1875,14 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="19" t="n">
         <v>3</v>
       </c>
       <c r="C27" s="19"/>
       <c r="H27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J27" s="2" t="n">
         <v>10</v>
@@ -1790,14 +1902,14 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="19" t="n">
         <v>3</v>
       </c>
       <c r="C28" s="19"/>
       <c r="H28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J28" s="2" t="n">
         <v>0.16</v>
@@ -1817,7 +1929,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="21" t="n">
         <v>4</v>
@@ -1838,7 +1950,7 @@
         <v>26.6666666666667</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
@@ -1852,13 +1964,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="21" t="n">
         <v>4</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>20</v>
@@ -1875,7 +1987,7 @@
         <v>30</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1</v>
@@ -1889,7 +2001,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="21" t="n">
         <v>4</v>
@@ -1910,7 +2022,7 @@
         <v>7.5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>3</v>
@@ -1924,7 +2036,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" s="21" t="n">
         <v>4</v>
@@ -1945,7 +2057,7 @@
         <v>11</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>3</v>
@@ -1962,13 +2074,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" s="21" t="n">
         <v>4</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>65</v>
@@ -1985,7 +2097,7 @@
         <v>8.4</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>3</v>
@@ -2005,7 +2117,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" s="21" t="n">
         <v>4</v>
@@ -2026,7 +2138,7 @@
         <v>26</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1</v>
@@ -2043,7 +2155,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="23" t="n">
         <v>5</v>
@@ -2064,7 +2176,7 @@
         <v>26.6666666666667</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1</v>
@@ -2078,7 +2190,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="23" t="n">
         <v>5</v>
@@ -2099,7 +2211,7 @@
         <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>4</v>
@@ -2113,13 +2225,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="23" t="n">
         <v>5</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>70</v>
@@ -2136,7 +2248,7 @@
         <v>9.2</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>4</v>
@@ -2153,13 +2265,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="23" t="n">
         <v>5</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>75</v>
@@ -2176,7 +2288,7 @@
         <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>4</v>
@@ -2196,7 +2308,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="23" t="n">
         <v>5</v>
@@ -2217,7 +2329,7 @@
         <v>25</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>2</v>
@@ -2237,13 +2349,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" s="23" t="n">
         <v>5</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>23</v>
@@ -2260,7 +2372,7 @@
         <v>28</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>2</v>
@@ -2274,14 +2386,14 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="23" t="n">
         <v>5</v>
       </c>
       <c r="C41" s="23"/>
       <c r="H41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J41" s="2" t="n">
         <v>10</v>
@@ -2295,14 +2407,14 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="23" t="n">
         <v>5</v>
       </c>
       <c r="C42" s="23"/>
       <c r="H42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J42" s="2" t="n">
         <v>0.03</v>
@@ -2319,7 +2431,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" s="25" t="n">
         <v>6</v>
@@ -2340,7 +2452,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>1</v>
@@ -2354,7 +2466,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" s="25" t="n">
         <v>6</v>
@@ -2375,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>5</v>
@@ -2389,7 +2501,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="25" t="n">
         <v>6</v>
@@ -2410,7 +2522,7 @@
         <v>16.6666666666667</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>1</v>
@@ -2424,7 +2536,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="25" t="n">
         <v>6</v>
@@ -2445,7 +2557,7 @@
         <v>16.6666666666667</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>1</v>
@@ -2459,7 +2571,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="25" t="n">
         <v>6</v>
@@ -2480,7 +2592,7 @@
         <v>10</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>1</v>
@@ -2494,7 +2606,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="25" t="n">
         <v>6</v>
@@ -2515,7 +2627,7 @@
         <v>10</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>5</v>
@@ -2529,7 +2641,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="25" t="n">
         <v>6</v>
@@ -2550,7 +2662,7 @@
         <v>10</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>5</v>
@@ -2564,13 +2676,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B50" s="25" t="n">
         <v>6</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>80</v>
@@ -2587,7 +2699,7 @@
         <v>8.66666666666667</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>5</v>
@@ -2607,13 +2719,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="25" t="n">
         <v>6</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>80</v>
@@ -2630,7 +2742,7 @@
         <v>8.66666666666667</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>5</v>
@@ -2650,13 +2762,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="25" t="n">
         <v>6</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>85</v>
@@ -2673,7 +2785,7 @@
         <v>11.2</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>5</v>
@@ -2693,13 +2805,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="25" t="n">
         <v>6</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>26</v>
@@ -2716,7 +2828,7 @@
         <v>32</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>3</v>
@@ -2736,13 +2848,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="25" t="n">
         <v>6</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>28</v>
@@ -2759,7 +2871,7 @@
         <v>34</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>3</v>
@@ -2776,7 +2888,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="25" t="n">
         <v>6</v>
@@ -2797,7 +2909,7 @@
         <v>30</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>3</v>
@@ -2814,13 +2926,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" s="25" t="n">
         <v>6</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>25</v>
@@ -2837,7 +2949,7 @@
         <v>4.8</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>3</v>
@@ -2857,7 +2969,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B57" s="25" t="n">
         <v>6</v>
@@ -2878,7 +2990,7 @@
         <v>5.2</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>3</v>
@@ -2898,13 +3010,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B58" s="25" t="n">
         <v>6</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>28</v>
@@ -2921,7 +3033,7 @@
         <v>4.66666666666667</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>3</v>
@@ -2941,14 +3053,14 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B59" s="25" t="n">
         <v>6</v>
       </c>
       <c r="C59" s="25"/>
       <c r="H59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J59" s="2" t="n">
         <v>5</v>
@@ -2965,14 +3077,14 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B60" s="25" t="n">
         <v>6</v>
       </c>
       <c r="C60" s="25"/>
       <c r="H60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J60" s="2" t="n">
         <v>0.16</v>
@@ -2989,14 +3101,14 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B61" s="25" t="n">
         <v>6</v>
       </c>
       <c r="C61" s="25"/>
       <c r="H61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J61" s="2" t="n">
         <v>0.16</v>
@@ -3033,7 +3145,7 @@
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="J61 E17"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3043,17 +3155,17 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -3061,7 +3173,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -3069,7 +3181,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3</v>
@@ -3077,7 +3189,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4</v>
@@ -3085,7 +3197,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5</v>
@@ -3093,7 +3205,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>6</v>

--- a/src/valheim-food.xlsx
+++ b/src/valheim-food.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="134">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -158,6 +158,27 @@
     <t xml:space="preserve">anglerfish</t>
   </si>
   <si>
+    <t xml:space="preserve">fiddlehead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smoke puff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vineberry cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volture egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volture meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asksvin tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonemaw meat</t>
+  </si>
+  <si>
     <t xml:space="preserve">y</t>
   </si>
   <si>
@@ -335,6 +356,51 @@
     <t xml:space="preserve">minor eitr</t>
   </si>
   <si>
+    <t xml:space="preserve">b: 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cooked asksvin tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cooked volture meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cooked bonemaw meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiery svinstew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mashed meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piquant pie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spicy marmalade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scorching medley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roasted crust pie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sizzling berry broth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sparkling shroomshake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b: 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marinated greens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b: 95</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://valheim.fandom.com/wiki/Food</t>
   </si>
   <si>
@@ -354,6 +420,9 @@
   </si>
   <si>
     <t xml:space="preserve">mistland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashlands</t>
   </si>
 </sst>
 </file>
@@ -399,7 +468,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +519,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF780373"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE0C2CD"/>
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
@@ -489,7 +564,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -540,6 +615,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -594,8 +673,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -645,7 +736,7 @@
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF780373"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
@@ -805,14 +896,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD61"/>
+  <dimension ref="A1:XFD76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AO50" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="AO1" activeCellId="0" sqref="AO1"/>
+      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="AZ1" activeCellId="0" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -826,7 +917,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="2" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="11" style="2" width="2.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="46" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="46" style="1" width="3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="53" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -965,19 +1057,44 @@
       <c r="AS1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AMH1" s="13"/>
-      <c r="AMI1" s="13"/>
-      <c r="XFC1" s="13"/>
-      <c r="XFD1" s="13"/>
+      <c r="AT1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AMD1" s="14"/>
+      <c r="AME1" s="14"/>
+      <c r="XEY1" s="14"/>
+      <c r="XEZ1" s="14"/>
+      <c r="XFA1" s="14"/>
+      <c r="XFB1" s="14"/>
+      <c r="XFC1" s="14"/>
+      <c r="XFD1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
       <c r="D2" s="2" t="n">
         <v>7</v>
       </c>
@@ -993,7 +1110,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>1</v>
@@ -1006,13 +1123,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="n">
@@ -1030,7 +1147,7 @@
         <v>23.3333333333333</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>1</v>
@@ -1043,13 +1160,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15"/>
+      <c r="A4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="2" t="n">
         <v>25</v>
       </c>
@@ -1065,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>2</v>
@@ -1078,13 +1195,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="n">
@@ -1102,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>2</v>
@@ -1115,13 +1232,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15"/>
+      <c r="A6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16"/>
       <c r="D6" s="2" t="n">
         <v>35</v>
       </c>
@@ -1137,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>2</v>
@@ -1150,13 +1267,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="n">
@@ -1174,7 +1291,7 @@
         <v>7.66666666666667</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>2</v>
@@ -1190,13 +1307,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15"/>
+      <c r="A8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="2" t="n">
         <v>45</v>
       </c>
@@ -1212,7 +1329,7 @@
         <v>7.5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>2</v>
@@ -1225,13 +1342,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15"/>
+      <c r="B9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="2" t="n">
         <v>15</v>
       </c>
@@ -1247,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>1</v>
@@ -1260,13 +1377,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17"/>
+      <c r="B10" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18"/>
       <c r="D10" s="2" t="n">
         <v>8</v>
       </c>
@@ -1282,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>1</v>
@@ -1295,13 +1412,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="17"/>
+      <c r="B11" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18"/>
       <c r="D11" s="2" t="n">
         <v>10</v>
       </c>
@@ -1317,7 +1434,7 @@
         <v>21.3333333333333</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>1</v>
@@ -1330,13 +1447,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="n">
@@ -1354,7 +1471,7 @@
         <v>18</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>2</v>
@@ -1370,13 +1487,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="n">
@@ -1394,7 +1511,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>2</v>
@@ -1410,13 +1527,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="n">
@@ -1434,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>3</v>
@@ -1453,13 +1570,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="A15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="n">
@@ -1477,7 +1594,7 @@
         <v>5.2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>3</v>
@@ -1496,18 +1613,24 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="17"/>
+      <c r="A16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="E16" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I16" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="J16" s="2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>10</v>
@@ -1523,13 +1646,16 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="17"/>
+      <c r="A17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="G17" s="3" t="n">
+        <v>40</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1547,13 +1673,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="17"/>
+      <c r="A18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18"/>
       <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1574,18 +1700,18 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="17"/>
+      <c r="A19" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="18"/>
       <c r="H19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>10</v>
@@ -1598,13 +1724,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="19" t="n">
+      <c r="A20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="n">
@@ -1622,7 +1748,7 @@
         <v>22</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>2</v>
@@ -1638,13 +1764,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="19" t="n">
+      <c r="B21" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="2" t="n">
         <v>10</v>
       </c>
@@ -1660,7 +1786,7 @@
         <v>30</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>1</v>
@@ -1673,13 +1799,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="19" t="n">
+      <c r="A22" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="2" t="n">
         <v>16</v>
       </c>
@@ -1695,7 +1821,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>1</v>
@@ -1714,13 +1840,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="19" t="n">
+      <c r="A23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="n">
@@ -1738,7 +1864,7 @@
         <v>7.2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>3</v>
@@ -1757,13 +1883,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="19" t="n">
+      <c r="A24" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="2" t="n">
         <v>50</v>
       </c>
@@ -1779,7 +1905,7 @@
         <v>8.5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>3</v>
@@ -1798,13 +1924,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="19" t="n">
+      <c r="A25" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="2" t="n">
         <v>70</v>
       </c>
@@ -1820,7 +1946,7 @@
         <v>9.2</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>3</v>
@@ -1833,13 +1959,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="19" t="n">
+      <c r="A26" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="2" t="n">
         <v>80</v>
       </c>
@@ -1855,7 +1981,7 @@
         <v>8.66666666666667</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>4</v>
@@ -1874,13 +2000,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="19" t="n">
+      <c r="A27" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="20"/>
       <c r="H27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1901,18 +2027,21 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="19" t="n">
+      <c r="A28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="E28" s="3" t="n">
+        <v>7.5</v>
+      </c>
       <c r="H28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>10</v>
@@ -1928,13 +2057,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="21" t="n">
+      <c r="B29" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="2" t="n">
         <v>15</v>
       </c>
@@ -1950,7 +2079,7 @@
         <v>26.6666666666667</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
@@ -1963,13 +2092,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="21" t="n">
+      <c r="A30" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="n">
@@ -1987,7 +2116,7 @@
         <v>30</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1</v>
@@ -2000,13 +2129,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="21" t="n">
+      <c r="A31" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="2" t="n">
         <v>45</v>
       </c>
@@ -2022,7 +2151,7 @@
         <v>7.5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>3</v>
@@ -2035,13 +2164,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="21" t="n">
+      <c r="A32" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="2" t="n">
         <v>33</v>
       </c>
@@ -2057,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>3</v>
@@ -2073,13 +2202,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="21" t="n">
+      <c r="A33" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="2" t="n">
@@ -2097,7 +2226,7 @@
         <v>8.4</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>3</v>
@@ -2116,13 +2245,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="21" t="n">
+      <c r="A34" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="2" t="n">
         <v>21</v>
       </c>
@@ -2138,7 +2267,7 @@
         <v>26</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1</v>
@@ -2154,13 +2283,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="23" t="n">
+      <c r="A35" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="2" t="n">
         <v>13</v>
       </c>
@@ -2176,7 +2305,7 @@
         <v>26.6666666666667</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1</v>
@@ -2189,13 +2318,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="23" t="n">
+      <c r="A36" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="2" t="n">
         <v>50</v>
       </c>
@@ -2211,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>4</v>
@@ -2224,13 +2353,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="23" t="n">
+      <c r="A37" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="2" t="n">
@@ -2248,7 +2377,7 @@
         <v>9.2</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>4</v>
@@ -2264,13 +2393,13 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="23" t="n">
+      <c r="A38" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="n">
@@ -2288,7 +2417,7 @@
         <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>4</v>
@@ -2307,13 +2436,13 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="23" t="n">
+      <c r="A39" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="2" t="n">
         <v>25</v>
       </c>
@@ -2329,7 +2458,7 @@
         <v>25</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>2</v>
@@ -2348,13 +2477,13 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="23" t="n">
+      <c r="A40" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="n">
@@ -2372,7 +2501,7 @@
         <v>28</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>2</v>
@@ -2385,13 +2514,13 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="23" t="n">
+      <c r="A41" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="24"/>
       <c r="H41" s="2" t="s">
         <v>9</v>
       </c>
@@ -2406,13 +2535,16 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="23" t="n">
+      <c r="A42" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="G42" s="3" t="n">
+        <v>80</v>
+      </c>
       <c r="H42" s="2" t="s">
         <v>9</v>
       </c>
@@ -2430,13 +2562,13 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="25" t="n">
+      <c r="A43" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="2" t="n">
         <v>35</v>
       </c>
@@ -2452,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>1</v>
@@ -2465,13 +2597,13 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="25" t="n">
+      <c r="A44" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="2" t="n">
         <v>60</v>
       </c>
@@ -2487,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>5</v>
@@ -2500,13 +2632,13 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="25" t="n">
+      <c r="A45" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="2" t="n">
         <v>25</v>
       </c>
@@ -2522,7 +2654,7 @@
         <v>16.6666666666667</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>1</v>
@@ -2535,13 +2667,13 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="25" t="n">
+      <c r="A46" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="2" t="n">
         <v>23</v>
       </c>
@@ -2557,7 +2689,7 @@
         <v>16.6666666666667</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>1</v>
@@ -2570,13 +2702,13 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="25" t="n">
+      <c r="B47" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="2" t="n">
         <v>15</v>
       </c>
@@ -2592,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>1</v>
@@ -2605,13 +2737,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="25" t="n">
+      <c r="A48" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="2" t="n">
         <v>60</v>
       </c>
@@ -2627,7 +2759,7 @@
         <v>10</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>5</v>
@@ -2640,13 +2772,13 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="25" t="n">
+      <c r="A49" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="2" t="n">
         <v>60</v>
       </c>
@@ -2662,7 +2794,7 @@
         <v>10</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>5</v>
@@ -2675,13 +2807,13 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="25" t="n">
+      <c r="A50" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="n">
@@ -2699,7 +2831,7 @@
         <v>8.66666666666667</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>5</v>
@@ -2718,13 +2850,13 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="25" t="n">
+      <c r="A51" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="n">
@@ -2742,7 +2874,7 @@
         <v>8.66666666666667</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>5</v>
@@ -2761,13 +2893,13 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="25" t="n">
+      <c r="A52" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="n">
@@ -2785,7 +2917,7 @@
         <v>11.2</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>5</v>
@@ -2804,13 +2936,13 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="25" t="n">
+      <c r="A53" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="n">
@@ -2828,7 +2960,7 @@
         <v>32</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>3</v>
@@ -2847,13 +2979,13 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="25" t="n">
+      <c r="A54" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="n">
@@ -2871,7 +3003,7 @@
         <v>34</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>3</v>
@@ -2887,13 +3019,13 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="25" t="n">
+      <c r="A55" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C55" s="25"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="2" t="n">
         <v>30</v>
       </c>
@@ -2909,7 +3041,7 @@
         <v>30</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>3</v>
@@ -2925,13 +3057,13 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="25" t="n">
+      <c r="A56" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="n">
@@ -2948,8 +3080,8 @@
         <f aca="false">F56/J56*10</f>
         <v>4.8</v>
       </c>
-      <c r="H56" s="26" t="s">
-        <v>96</v>
+      <c r="H56" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>3</v>
@@ -2968,13 +3100,13 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="25" t="n">
+      <c r="A57" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C57" s="25"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="2" t="n">
         <v>27</v>
       </c>
@@ -2989,8 +3121,8 @@
         <f aca="false">F57/J57*10</f>
         <v>5.2</v>
       </c>
-      <c r="H57" s="26" t="s">
-        <v>98</v>
+      <c r="H57" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>3</v>
@@ -3009,13 +3141,13 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="25" t="n">
+      <c r="A58" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="n">
@@ -3032,8 +3164,8 @@
         <f aca="false">F58/J58*10</f>
         <v>4.66666666666667</v>
       </c>
-      <c r="H58" s="26" t="s">
-        <v>100</v>
+      <c r="H58" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>3</v>
@@ -3052,13 +3184,21 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="25" t="n">
+      <c r="A59" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="E59" s="3" t="n">
+        <f aca="false">D59/J59*10</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <f aca="false">F59/J59*10</f>
+        <v>0</v>
+      </c>
       <c r="H59" s="2" t="s">
         <v>9</v>
       </c>
@@ -3076,18 +3216,25 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="25" t="n">
+      <c r="A60" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="26"/>
+      <c r="E60" s="3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <f aca="false">F60/J60*10</f>
+        <v>0</v>
+      </c>
       <c r="H60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="L60" s="2" t="n">
         <v>10</v>
@@ -3100,18 +3247,26 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="25" t="n">
+      <c r="A61" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="26"/>
+      <c r="E61" s="3" t="n">
+        <f aca="false">D61/J61*10</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <f aca="false">F61/J61*10</f>
+        <v>0</v>
+      </c>
       <c r="H61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="L61" s="2" t="n">
         <v>10</v>
@@ -3124,6 +3279,591 @@
       </c>
       <c r="AQ61" s="2" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <f aca="false">D62/J62*10</f>
+        <v>20</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <f aca="false">F62/J62*10</f>
+        <v>20</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT62" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <f aca="false">D63/J63*10</f>
+        <v>10</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <f aca="false">F63/J63*10</f>
+        <v>10</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU63" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <f aca="false">D64/J64*10</f>
+        <v>20</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <f aca="false">F64/J64*10</f>
+        <v>20</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV64" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <f aca="false">D65/J65*10</f>
+        <v>35</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <f aca="false">F65/J65*10</f>
+        <v>12</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY65" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <f aca="false">D66/J66*10</f>
+        <v>35</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <f aca="false">F66/J66*10</f>
+        <v>12</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX66" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <f aca="false">D67/J67*10</f>
+        <v>36</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <f aca="false">F67/J67*10</f>
+        <v>12</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ67" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <f aca="false">D68/J68*10</f>
+        <v>38</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <f aca="false">F68/J68*10</f>
+        <v>12.8</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY68" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <f aca="false">D69/J69*10</f>
+        <v>40</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <f aca="false">F69/J69*10</f>
+        <v>13.6</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY69" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <f aca="false">D70/J70*10</f>
+        <v>35</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <f aca="false">F70/J70*10</f>
+        <v>11.6666666666667</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI70" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY70" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <f aca="false">D71/J71*10</f>
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <f aca="false">F71/J71*10</f>
+        <v>36</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="L71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV71" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <f aca="false">D72/J72*10</f>
+        <v>12.8</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <f aca="false">F72/J72*10</f>
+        <v>38</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD72" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM72" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT72" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <f aca="false">D73/J73*10</f>
+        <v>11.3333333333333</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <f aca="false">F73/J73*10</f>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI73" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW73" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C74" s="29"/>
+      <c r="D74" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <f aca="false">D74/J74*10</f>
+        <v>11.2</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <f aca="false">F74/J74*10</f>
+        <v>5.6</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV74" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <f aca="false">D75/J75*10</f>
+        <v>12</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <f aca="false">F75/J75*10</f>
+        <v>6</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I75" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J75" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL75" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ75" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV75" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <f aca="false">D76/J76*10</f>
+        <v>10.6666666666667</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <f aca="false">F76/J76*10</f>
+        <v>5.33333333333333</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL76" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ76" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT76" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU76" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3142,10 +3882,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3154,8 +3894,8 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="13" t="s">
-        <v>104</v>
+      <c r="B2" s="14" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,51 +3904,59 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="27" t="s">
-        <v>105</v>
+      <c r="B5" s="31" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="28" t="s">
-        <v>106</v>
+      <c r="B6" s="32" t="s">
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="29" t="s">
-        <v>107</v>
+      <c r="B7" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="30" t="s">
-        <v>108</v>
+      <c r="B8" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="31" t="s">
-        <v>109</v>
+      <c r="B9" s="35" t="s">
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="32" t="s">
-        <v>110</v>
+      <c r="B10" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/valheim-food.xlsx
+++ b/src/valheim-food.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="169">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -83,6 +83,12 @@
     <t xml:space="preserve">coal</t>
   </si>
   <si>
+    <t xml:space="preserve">feathers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perch</t>
+  </si>
+  <si>
     <t xml:space="preserve">blueberries</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t xml:space="preserve">thistle</t>
   </si>
   <si>
+    <t xml:space="preserve">trollfish</t>
+  </si>
+  <si>
     <t xml:space="preserve">turnip</t>
   </si>
   <si>
@@ -110,6 +119,42 @@
     <t xml:space="preserve">serpent meat</t>
   </si>
   <si>
+    <t xml:space="preserve">toadstool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cured squirrel hamstring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh seaweed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powdered dragon eggshells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pungent pebbles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fragrant bundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiery spice powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herbs of the hidden hills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grasslands herbalist harvest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mountain peak pepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seafarer's herbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">woodland herb blend</t>
+  </si>
+  <si>
     <t xml:space="preserve">onion</t>
   </si>
   <si>
@@ -128,6 +173,9 @@
     <t xml:space="preserve">barley</t>
   </si>
   <si>
+    <t xml:space="preserve">grouper</t>
+  </si>
+  <si>
     <t xml:space="preserve">egg</t>
   </si>
   <si>
@@ -158,6 +206,9 @@
     <t xml:space="preserve">anglerfish</t>
   </si>
   <si>
+    <t xml:space="preserve">scale hide</t>
+  </si>
+  <si>
     <t xml:space="preserve">fiddlehead</t>
   </si>
   <si>
@@ -399,6 +450,60 @@
   </si>
   <si>
     <t xml:space="preserve">b: 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berserkir mead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tonic of ratatosk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightfoot mead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">draught of vananidir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mead of troll endurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brew of animal whispers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anti-sting concoction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashlands gourmet bowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f: 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushrooms galore á la mistlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f: 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plains pie picnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hearty mountain logger's stew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sailor's bounty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swamp dweller's delight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black forest buffet platter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whole roasted meadow boar</t>
   </si>
   <si>
     <t xml:space="preserve">https://valheim.fandom.com/wiki/Food</t>
@@ -432,7 +537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -456,6 +561,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -564,7 +682,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -581,6 +699,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,7 +715,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -597,8 +731,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -609,11 +751,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,7 +771,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,19 +1046,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD76"/>
+  <dimension ref="A1:AMK91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO50" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AO1" activeCellId="0" sqref="AO1"/>
-      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
-      <selection pane="bottomRight" activeCell="AZ1" activeCellId="0" sqref="AZ1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="T91" activeCellId="0" sqref="T91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="2.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="4.71"/>
@@ -916,185 +1066,234 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="2" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="11" style="2" width="2.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="46" style="1" width="3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="53" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="11" style="4" width="2.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="5" width="2.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="35" style="5" width="2.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="45" style="4" width="2.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="4" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="63" style="5" width="3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="70" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="6" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AT1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AU1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AV1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AW1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AX1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="AY1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AMD1" s="14"/>
-      <c r="AME1" s="14"/>
-      <c r="XEY1" s="14"/>
-      <c r="XEZ1" s="14"/>
-      <c r="XFA1" s="14"/>
-      <c r="XFB1" s="14"/>
-      <c r="XFC1" s="14"/>
-      <c r="XFD1" s="14"/>
+      <c r="BA1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AMJ1" s="22"/>
+      <c r="AMK1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24"/>
       <c r="D2" s="2" t="n">
         <v>7</v>
       </c>
@@ -1110,7 +1309,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>1</v>
@@ -1118,18 +1317,18 @@
       <c r="J2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="n">
@@ -1147,7 +1346,7 @@
         <v>23.3333333333333</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>1</v>
@@ -1155,18 +1354,18 @@
       <c r="J3" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16"/>
+      <c r="A4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24"/>
       <c r="D4" s="2" t="n">
         <v>25</v>
       </c>
@@ -1182,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>2</v>
@@ -1190,18 +1389,18 @@
       <c r="J4" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="n">
@@ -1219,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>2</v>
@@ -1227,18 +1426,18 @@
       <c r="J5" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="A6" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="2" t="n">
         <v>35</v>
       </c>
@@ -1254,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>2</v>
@@ -1262,18 +1461,18 @@
       <c r="J6" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="n">
@@ -1291,7 +1490,7 @@
         <v>7.66666666666667</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>2</v>
@@ -1299,21 +1498,21 @@
       <c r="J7" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="N7" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16"/>
+      <c r="A8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24"/>
       <c r="D8" s="2" t="n">
         <v>45</v>
       </c>
@@ -1329,7 +1528,7 @@
         <v>7.5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>2</v>
@@ -1337,18 +1536,18 @@
       <c r="J8" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16"/>
+      <c r="B9" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24"/>
       <c r="D9" s="2" t="n">
         <v>15</v>
       </c>
@@ -1364,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>1</v>
@@ -1372,18 +1571,18 @@
       <c r="J9" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="R9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="18"/>
+      <c r="A10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="26"/>
       <c r="D10" s="2" t="n">
         <v>8</v>
       </c>
@@ -1399,7 +1598,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>1</v>
@@ -1407,18 +1606,18 @@
       <c r="J10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="W10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="18"/>
+      <c r="A11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="26"/>
       <c r="D11" s="2" t="n">
         <v>10</v>
       </c>
@@ -1434,7 +1633,7 @@
         <v>21.3333333333333</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>1</v>
@@ -1442,18 +1641,18 @@
       <c r="J11" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="X11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="n">
@@ -1471,7 +1670,7 @@
         <v>18</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>2</v>
@@ -1479,21 +1678,21 @@
       <c r="J12" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="R12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="2" t="n">
+      <c r="R12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="A13" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="n">
@@ -1511,7 +1710,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>2</v>
@@ -1519,21 +1718,21 @@
       <c r="J13" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="K13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U13" s="2" t="n">
+      <c r="K13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="n">
@@ -1551,7 +1750,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>3</v>
@@ -1559,24 +1758,24 @@
       <c r="J14" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" s="2" t="n">
+      <c r="O14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="n">
@@ -1594,7 +1793,7 @@
         <v>5.2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>3</v>
@@ -1602,24 +1801,24 @@
       <c r="J15" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="M15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="2" t="n">
+      <c r="M15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="18"/>
+      <c r="A16" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="26"/>
       <c r="E16" s="3" t="n">
         <v>5</v>
       </c>
@@ -1632,27 +1831,27 @@
       <c r="J16" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="K16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="S16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" s="2" t="n">
+      <c r="K16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="18"/>
+      <c r="A17" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="26"/>
       <c r="G17" s="3" t="n">
         <v>40</v>
       </c>
@@ -1662,75 +1861,75 @@
       <c r="J17" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="K17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="W17" s="2" t="n">
+      <c r="K17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="18"/>
+      <c r="A18" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="26"/>
       <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="X18" s="2" t="n">
+      <c r="L18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="18"/>
+      <c r="A19" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="26"/>
       <c r="H19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J19" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="K19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="U19" s="2" t="n">
+      <c r="K19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="W19" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="A20" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="n">
@@ -1748,7 +1947,7 @@
         <v>22</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>2</v>
@@ -1756,21 +1955,21 @@
       <c r="J20" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="N20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="2" t="n">
+      <c r="N20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" s="20"/>
+      <c r="A21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="28"/>
       <c r="D21" s="2" t="n">
         <v>10</v>
       </c>
@@ -1786,7 +1985,7 @@
         <v>30</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>1</v>
@@ -1794,18 +1993,18 @@
       <c r="J21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="Y21" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" s="20"/>
+      <c r="A22" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="28"/>
       <c r="D22" s="2" t="n">
         <v>16</v>
       </c>
@@ -1821,7 +2020,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>1</v>
@@ -1829,24 +2028,24 @@
       <c r="J22" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="K22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="2" t="n">
+      <c r="K22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" s="20" t="s">
+      <c r="A23" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="n">
@@ -1864,7 +2063,7 @@
         <v>7.2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>3</v>
@@ -1872,24 +2071,24 @@
       <c r="J23" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="N23" s="5" t="n">
+      <c r="N23" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="X23" s="5" t="n">
+      <c r="Z23" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="AA23" s="2" t="n">
+      <c r="AD23" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" s="20"/>
+      <c r="A24" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="28"/>
       <c r="D24" s="2" t="n">
         <v>50</v>
       </c>
@@ -1905,7 +2104,7 @@
         <v>8.5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>3</v>
@@ -1913,24 +2112,24 @@
       <c r="J24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="L24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="2" t="n">
+      <c r="L24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" s="20"/>
+      <c r="A25" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="28"/>
       <c r="D25" s="2" t="n">
         <v>70</v>
       </c>
@@ -1946,7 +2145,7 @@
         <v>9.2</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>3</v>
@@ -1954,18 +2153,18 @@
       <c r="J25" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AC25" s="2" t="n">
+      <c r="AF25" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" s="20"/>
+      <c r="A26" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="28"/>
       <c r="D26" s="2" t="n">
         <v>80</v>
       </c>
@@ -1981,7 +2180,7 @@
         <v>8.66666666666667</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>4</v>
@@ -1989,51 +2188,51 @@
       <c r="J26" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="L26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="2" t="n">
+      <c r="L26" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" s="20"/>
+      <c r="A27" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="28"/>
       <c r="H27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J27" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L27" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X27" s="2" t="n">
+      <c r="L27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="AB27" s="2" t="n">
+      <c r="AE27" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" s="20"/>
+      <c r="A28" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="28"/>
       <c r="E28" s="3" t="n">
         <v>7.5</v>
       </c>
@@ -2043,27 +2242,27 @@
       <c r="J28" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="K28" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L28" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="S28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="2" t="n">
+      <c r="K28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="22" t="n">
+      <c r="A29" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="2" t="n">
         <v>15</v>
       </c>
@@ -2079,7 +2278,7 @@
         <v>26.6666666666667</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
@@ -2087,18 +2286,18 @@
       <c r="J29" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AD29" s="2" t="n">
+      <c r="AS29" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="22" t="n">
+      <c r="A30" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="n">
@@ -2116,7 +2315,7 @@
         <v>30</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1</v>
@@ -2124,18 +2323,18 @@
       <c r="J30" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="AD30" s="2" t="n">
+      <c r="AS30" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="22" t="n">
+      <c r="A31" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="2" t="n">
         <v>45</v>
       </c>
@@ -2151,7 +2350,7 @@
         <v>7.5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>3</v>
@@ -2159,18 +2358,18 @@
       <c r="J31" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="AE31" s="2" t="n">
+      <c r="AT31" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="22" t="n">
+      <c r="A32" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="2" t="n">
         <v>33</v>
       </c>
@@ -2186,7 +2385,7 @@
         <v>11</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>3</v>
@@ -2194,21 +2393,21 @@
       <c r="J32" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="L32" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE32" s="2" t="n">
+      <c r="AT32" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="22" t="n">
+      <c r="A33" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="2" t="n">
@@ -2226,7 +2425,7 @@
         <v>8.4</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>3</v>
@@ -2234,24 +2433,24 @@
       <c r="J33" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="R33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="2" t="n">
+      <c r="R33" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="22" t="n">
+      <c r="A34" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="C34" s="22"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="2" t="n">
         <v>21</v>
       </c>
@@ -2267,7 +2466,7 @@
         <v>26</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1</v>
@@ -2275,21 +2474,21 @@
       <c r="J34" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="Q34" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF34" s="2" t="n">
+      <c r="Q34" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU34" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="24" t="n">
+      <c r="A35" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="2" t="n">
         <v>13</v>
       </c>
@@ -2305,7 +2504,7 @@
         <v>26.6666666666667</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1</v>
@@ -2313,18 +2512,18 @@
       <c r="J35" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AG35" s="2" t="n">
+      <c r="AV35" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="24" t="n">
+      <c r="A36" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="2" t="n">
         <v>50</v>
       </c>
@@ -2340,7 +2539,7 @@
         <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>4</v>
@@ -2348,18 +2547,18 @@
       <c r="J36" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="AH36" s="2" t="n">
+      <c r="AW36" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="24" t="n">
+      <c r="A37" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="2" t="n">
@@ -2377,7 +2576,7 @@
         <v>9.2</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>4</v>
@@ -2385,21 +2584,21 @@
       <c r="J37" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="P37" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI37" s="2" t="n">
+      <c r="P37" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX37" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="24" t="n">
+      <c r="A38" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="n">
@@ -2417,7 +2616,7 @@
         <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>4</v>
@@ -2425,24 +2624,24 @@
       <c r="J38" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AG38" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH38" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI38" s="2" t="n">
+      <c r="AV38" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW38" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX38" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="24" t="n">
+      <c r="A39" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="2" t="n">
         <v>25</v>
       </c>
@@ -2458,7 +2657,7 @@
         <v>25</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>2</v>
@@ -2466,24 +2665,24 @@
       <c r="J39" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="X39" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB39" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI39" s="2" t="n">
+      <c r="Z39" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX39" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="24" t="n">
+      <c r="A40" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="n">
@@ -2501,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>2</v>
@@ -2509,39 +2708,39 @@
       <c r="J40" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AI40" s="2" t="n">
+      <c r="AX40" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="24" t="n">
+      <c r="A41" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C41" s="24"/>
+      <c r="C41" s="32"/>
       <c r="H41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J41" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AG41" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI41" s="2" t="n">
+      <c r="AV41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX41" s="4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="24" t="n">
+      <c r="A42" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C42" s="24"/>
+      <c r="C42" s="32"/>
       <c r="G42" s="3" t="n">
         <v>80</v>
       </c>
@@ -2551,24 +2750,24 @@
       <c r="J42" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="K42" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="W42" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG42" s="2" t="n">
+      <c r="K42" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y42" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV42" s="4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="26" t="n">
+      <c r="A43" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C43" s="26"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="2" t="n">
         <v>35</v>
       </c>
@@ -2584,7 +2783,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>1</v>
@@ -2592,18 +2791,18 @@
       <c r="J43" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="AJ43" s="2" t="n">
+      <c r="AZ43" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="26" t="n">
+      <c r="A44" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C44" s="26"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="2" t="n">
         <v>60</v>
       </c>
@@ -2619,7 +2818,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>5</v>
@@ -2627,18 +2826,18 @@
       <c r="J44" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="AK44" s="2" t="n">
+      <c r="BA44" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="26" t="n">
+      <c r="A45" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C45" s="26"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="2" t="n">
         <v>25</v>
       </c>
@@ -2653,8 +2852,8 @@
         <f aca="false">F45/J45*10</f>
         <v>16.6666666666667</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>92</v>
+      <c r="H45" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>1</v>
@@ -2662,18 +2861,18 @@
       <c r="J45" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AL45" s="2" t="n">
+      <c r="BB45" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="26" t="n">
+      <c r="A46" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C46" s="26"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="2" t="n">
         <v>23</v>
       </c>
@@ -2689,7 +2888,7 @@
         <v>16.6666666666667</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>1</v>
@@ -2697,18 +2896,18 @@
       <c r="J46" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AM46" s="2" t="n">
+      <c r="BC46" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="26" t="n">
+      <c r="A47" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C47" s="26"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="2" t="n">
         <v>15</v>
       </c>
@@ -2723,8 +2922,8 @@
         <f aca="false">F47/J47*10</f>
         <v>10</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>58</v>
+      <c r="H47" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>1</v>
@@ -2732,18 +2931,18 @@
       <c r="J47" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AR47" s="2" t="n">
+      <c r="BH47" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="26" t="n">
+      <c r="A48" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C48" s="26"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="2" t="n">
         <v>60</v>
       </c>
@@ -2759,7 +2958,7 @@
         <v>10</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>5</v>
@@ -2767,18 +2966,18 @@
       <c r="J48" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="AN48" s="2" t="n">
+      <c r="BD48" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="26" t="n">
+      <c r="A49" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C49" s="26"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="2" t="n">
         <v>60</v>
       </c>
@@ -2794,7 +2993,7 @@
         <v>10</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>5</v>
@@ -2802,18 +3001,18 @@
       <c r="J49" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="AO49" s="2" t="n">
+      <c r="BE49" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="26" t="n">
+      <c r="A50" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="n">
@@ -2831,7 +3030,7 @@
         <v>8.66666666666667</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>5</v>
@@ -2839,24 +3038,24 @@
       <c r="J50" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AH50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO50" s="2" t="n">
+      <c r="AW50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE50" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="26" t="n">
+      <c r="A51" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="n">
@@ -2874,7 +3073,7 @@
         <v>8.66666666666667</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>5</v>
@@ -2882,24 +3081,24 @@
       <c r="J51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="L51" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM51" s="2" t="n">
+      <c r="L51" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC51" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="26" t="n">
+      <c r="A52" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="n">
@@ -2917,7 +3116,7 @@
         <v>11.2</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>5</v>
@@ -2925,24 +3124,24 @@
       <c r="J52" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="V52" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM52" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO52" s="2" t="n">
+      <c r="X52" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC52" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE52" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="26" t="n">
+      <c r="A53" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="n">
@@ -2960,7 +3159,7 @@
         <v>32</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>3</v>
@@ -2968,24 +3167,24 @@
       <c r="J53" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AD53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM53" s="2" t="n">
+      <c r="AS53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC53" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="26" t="n">
+      <c r="A54" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="n">
@@ -3003,7 +3202,7 @@
         <v>34</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>3</v>
@@ -3011,21 +3210,21 @@
       <c r="J54" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AJ54" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM54" s="2" t="n">
+      <c r="AZ54" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC54" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="26" t="n">
+      <c r="A55" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C55" s="26"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="2" t="n">
         <v>30</v>
       </c>
@@ -3041,7 +3240,7 @@
         <v>30</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>3</v>
@@ -3049,21 +3248,21 @@
       <c r="J55" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AI55" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS55" s="2" t="n">
+      <c r="AX55" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI55" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="26" t="n">
+      <c r="A56" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="n">
@@ -3080,8 +3279,8 @@
         <f aca="false">F56/J56*10</f>
         <v>4.8</v>
       </c>
-      <c r="H56" s="27" t="s">
-        <v>103</v>
+      <c r="H56" s="35" t="s">
+        <v>120</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>3</v>
@@ -3089,24 +3288,24 @@
       <c r="J56" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="Y56" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL56" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP56" s="2" t="n">
+      <c r="AB56" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB56" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF56" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="26" t="n">
+      <c r="A57" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2" t="n">
         <v>27</v>
       </c>
@@ -3121,8 +3320,8 @@
         <f aca="false">F57/J57*10</f>
         <v>5.2</v>
       </c>
-      <c r="H57" s="27" t="s">
-        <v>105</v>
+      <c r="H57" s="35" t="s">
+        <v>122</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>3</v>
@@ -3130,24 +3329,24 @@
       <c r="J57" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AI57" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ57" s="2" t="n">
+      <c r="AX57" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG57" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="AR57" s="2" t="n">
+      <c r="BH57" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="26" t="n">
+      <c r="A58" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="n">
@@ -3164,8 +3363,8 @@
         <f aca="false">F58/J58*10</f>
         <v>4.66666666666667</v>
       </c>
-      <c r="H58" s="27" t="s">
-        <v>107</v>
+      <c r="H58" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>3</v>
@@ -3173,24 +3372,24 @@
       <c r="J58" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AL58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR58" s="2" t="n">
+      <c r="BB58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH58" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="26" t="n">
+      <c r="A59" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C59" s="26"/>
+      <c r="C59" s="34"/>
       <c r="E59" s="3" t="n">
         <f aca="false">D59/J59*10</f>
         <v>0</v>
@@ -3205,24 +3404,24 @@
       <c r="J59" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AG59" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM59" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP59" s="2" t="n">
+      <c r="AV59" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC59" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF59" s="4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="26" t="n">
+      <c r="A60" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C60" s="26"/>
+      <c r="C60" s="34"/>
       <c r="E60" s="3" t="n">
         <v>12.5</v>
       </c>
@@ -3236,24 +3435,24 @@
       <c r="J60" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="L60" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP60" s="2" t="n">
+      <c r="L60" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF60" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="AR60" s="2" t="n">
+      <c r="BH60" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="26" t="n">
+      <c r="A61" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C61" s="26"/>
+      <c r="C61" s="34"/>
       <c r="E61" s="3" t="n">
         <f aca="false">D61/J61*10</f>
         <v>0</v>
@@ -3268,27 +3467,27 @@
       <c r="J61" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="L61" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL61" s="2" t="n">
+      <c r="L61" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB61" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="AM61" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ61" s="2" t="n">
+      <c r="BC61" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG61" s="4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="29" t="n">
+      <c r="A62" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C62" s="28"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="2" t="n">
         <v>30</v>
       </c>
@@ -3304,7 +3503,7 @@
         <v>20</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>1</v>
@@ -3312,18 +3511,18 @@
       <c r="J62" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AT62" s="1" t="n">
+      <c r="BK62" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="29" t="n">
+      <c r="A63" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C63" s="28"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="2" t="n">
         <v>15</v>
       </c>
@@ -3339,7 +3538,7 @@
         <v>10</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>1</v>
@@ -3347,18 +3546,18 @@
       <c r="J63" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AU63" s="1" t="n">
+      <c r="BL63" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="29" t="n">
+      <c r="A64" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C64" s="28"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="2" t="n">
         <v>30</v>
       </c>
@@ -3374,7 +3573,7 @@
         <v>20</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>1</v>
@@ -3382,18 +3581,18 @@
       <c r="J64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AV64" s="1" t="n">
+      <c r="BM64" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="29" t="n">
+      <c r="A65" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C65" s="29"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="2" t="n">
         <v>70</v>
       </c>
@@ -3409,7 +3608,7 @@
         <v>12</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I65" s="2" t="n">
         <v>6</v>
@@ -3417,18 +3616,18 @@
       <c r="J65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="AY65" s="1" t="n">
+      <c r="BP65" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="29" t="n">
+      <c r="A66" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C66" s="29"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="2" t="n">
         <v>70</v>
       </c>
@@ -3444,7 +3643,7 @@
         <v>12</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>6</v>
@@ -3452,18 +3651,18 @@
       <c r="J66" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="AX66" s="1" t="n">
+      <c r="BO66" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="29" t="n">
+      <c r="A67" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C67" s="29"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="2" t="n">
         <v>90</v>
       </c>
@@ -3479,7 +3678,7 @@
         <v>12</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I67" s="2" t="n">
         <v>6</v>
@@ -3487,18 +3686,18 @@
       <c r="J67" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AZ67" s="1" t="n">
+      <c r="BQ67" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="29" t="n">
+      <c r="A68" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C68" s="29"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="2" t="n">
         <v>95</v>
       </c>
@@ -3514,7 +3713,7 @@
         <v>12.8</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I68" s="2" t="n">
         <v>6</v>
@@ -3522,24 +3721,24 @@
       <c r="J68" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AU68" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV68" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY68" s="1" t="n">
+      <c r="BL68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM68" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP68" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" s="29" t="n">
+      <c r="A69" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C69" s="29"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="2" t="n">
         <v>100</v>
       </c>
@@ -3555,7 +3754,7 @@
         <v>13.6</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I69" s="2" t="n">
         <v>6</v>
@@ -3563,24 +3762,24 @@
       <c r="J69" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AT69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY69" s="1" t="n">
+      <c r="BK69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP69" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="29" t="n">
+      <c r="A70" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C70" s="29"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="2" t="n">
         <v>105</v>
       </c>
@@ -3596,7 +3795,7 @@
         <v>11.6666666666667</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I70" s="2" t="n">
         <v>6</v>
@@ -3604,24 +3803,24 @@
       <c r="J70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AI70" s="2" t="n">
+      <c r="AX70" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="AV70" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY70" s="1" t="n">
+      <c r="BM70" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP70" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="29" t="n">
+      <c r="A71" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C71" s="29"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="2" t="n">
         <v>30</v>
       </c>
@@ -3637,7 +3836,7 @@
         <v>36</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I71" s="2" t="n">
         <v>4</v>
@@ -3645,24 +3844,24 @@
       <c r="J71" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="L71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV71" s="1" t="n">
+      <c r="L71" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM71" s="5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="29" t="n">
+      <c r="A72" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C72" s="29"/>
+      <c r="C72" s="37"/>
       <c r="D72" s="2" t="n">
         <v>32</v>
       </c>
@@ -3678,7 +3877,7 @@
         <v>38</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I72" s="2" t="n">
         <v>4</v>
@@ -3686,24 +3885,24 @@
       <c r="J72" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AD72" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM72" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT72" s="1" t="n">
+      <c r="AS72" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC72" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK72" s="5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="29" t="n">
+      <c r="A73" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C73" s="29"/>
+      <c r="C73" s="37"/>
       <c r="D73" s="2" t="n">
         <v>34</v>
       </c>
@@ -3719,7 +3918,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I73" s="2" t="n">
         <v>4</v>
@@ -3727,24 +3926,24 @@
       <c r="J73" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AI73" s="2" t="n">
+      <c r="AX73" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="AV73" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW73" s="1" t="n">
+      <c r="BM73" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN73" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="29" t="n">
+      <c r="A74" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C74" s="29"/>
+      <c r="C74" s="37"/>
       <c r="D74" s="2" t="n">
         <v>28</v>
       </c>
@@ -3760,7 +3959,7 @@
         <v>5.6</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="I74" s="2" t="n">
         <v>4</v>
@@ -3768,24 +3967,24 @@
       <c r="J74" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AQ74" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT74" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV74" s="1" t="n">
+      <c r="BG74" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK74" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM74" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="29" t="n">
+      <c r="A75" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C75" s="29"/>
+      <c r="C75" s="37"/>
       <c r="D75" s="2" t="n">
         <v>30</v>
       </c>
@@ -3801,7 +4000,7 @@
         <v>6</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="I75" s="2" t="n">
         <v>4</v>
@@ -3809,27 +4008,27 @@
       <c r="J75" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AL75" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ75" s="2" t="n">
+      <c r="BB75" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG75" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="AU75" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV75" s="1" t="n">
+      <c r="BL75" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM75" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B76" s="29" t="n">
+      <c r="A76" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C76" s="29"/>
+      <c r="C76" s="37"/>
       <c r="D76" s="2" t="n">
         <v>32</v>
       </c>
@@ -3845,7 +4044,7 @@
         <v>5.33333333333333</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="I76" s="2" t="n">
         <v>4</v>
@@ -3853,17 +4052,630 @@
       <c r="J76" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AL76" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ76" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT76" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU76" s="1" t="n">
-        <v>2</v>
+      <c r="BB76" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG76" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK76" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL76" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <f aca="false">D77/J77*10</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <f aca="false">F77/J77*10</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R77" s="4" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Y77" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG77" s="5" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <f aca="false">D78/J78*10</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <f aca="false">F78/J78*10</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L78" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W78" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH78" s="5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <f aca="false">D79/J79*10</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <f aca="false">F79/J79*10</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="U79" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BB79" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BJ79" s="4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <f aca="false">D80/J80*10</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <f aca="false">F80/J80*10</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V80" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AI80" s="5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <f aca="false">D81/J81*10</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <f aca="false">F81/J81*10</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L81" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA81" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ81" s="5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <f aca="false">D82/J82*10</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <f aca="false">F82/J82*10</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L82" s="0"/>
+      <c r="X82" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK82" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AS82" s="4" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <f aca="false">D83/J83*10</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <f aca="false">F83/J83*10</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL83" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AV83" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY83" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <f aca="false">D84/J84*10</f>
+        <v>15</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <f aca="false">F84/J84*10</f>
+        <v>15</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM84" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS84" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BC84" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BK84" s="5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BM84" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BP84" s="5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <f aca="false">D85/J85*10</f>
+        <v>13</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <f aca="false">F85/J85*10</f>
+        <v>13</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="X85" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AN85" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AX85" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BC85" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BD85" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BE85" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BG85" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BH85" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <f aca="false">D86/J86*10</f>
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <f aca="false">F86/J86*10</f>
+        <v>11</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO86" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AV86" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW86" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AX86" s="4" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <f aca="false">D87/J87*10</f>
+        <v>9</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <f aca="false">F87/J87*10</f>
+        <v>9</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="R87" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X87" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP87" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS87" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT87" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <f aca="false">D88/J88*10</f>
+        <v>9</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <f aca="false">F88/J88*10</f>
+        <v>9</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="P88" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z88" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF88" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ88" s="5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <f aca="false">D89/J89*10</f>
+        <v>7</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <f aca="false">F89/J89*10</f>
+        <v>7</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="N89" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z89" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB89" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD89" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AE89" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR89" s="5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <f aca="false">D90/J90*10</f>
+        <v>7</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <f aca="false">F90/J90*10</f>
+        <v>7</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K90" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O90" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W90" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X90" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z90" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR90" s="5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <f aca="false">D91/J91*10</f>
+        <v>7</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <f aca="false">F91/J91*10</f>
+        <v>7</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="O91" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S91" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR91" s="5" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -3871,8 +4683,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3884,7 +4696,7 @@
   </sheetPr>
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3894,8 +4706,8 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="14" t="s">
-        <v>126</v>
+      <c r="B2" s="22" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,56 +4716,56 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="31" t="s">
-        <v>127</v>
+      <c r="B5" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="32" t="s">
-        <v>128</v>
+      <c r="B6" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="33" t="s">
-        <v>129</v>
+      <c r="B7" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="34" t="s">
-        <v>130</v>
+      <c r="B8" s="42" t="s">
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="35" t="s">
-        <v>131</v>
+      <c r="B9" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="36" t="s">
-        <v>132</v>
+      <c r="B10" s="44" t="s">
+        <v>167</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="28" t="s">
-        <v>133</v>
+      <c r="B11" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>7</v>
@@ -3964,8 +4776,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/valheim-food.xlsx
+++ b/src/valheim-food.xlsx
@@ -254,6 +254,12 @@
     <t xml:space="preserve">cooked fish</t>
   </si>
   <si>
+    <t xml:space="preserve">whole roasted meadow boar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
     <t xml:space="preserve">carrot soup</t>
   </si>
   <si>
@@ -278,6 +284,9 @@
     <t xml:space="preserve">tasty</t>
   </si>
   <si>
+    <t xml:space="preserve">black forest buffet platter</t>
+  </si>
+  <si>
     <t xml:space="preserve">turnip stew</t>
   </si>
   <si>
@@ -302,6 +311,24 @@
     <t xml:space="preserve">medium healing</t>
   </si>
   <si>
+    <t xml:space="preserve">berserkir mead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tonic of ratatosk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">draught of vananidir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mead of troll endurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swamp dweller's delight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sailor's bounty</t>
+  </si>
+  <si>
     <t xml:space="preserve">onion soup</t>
   </si>
   <si>
@@ -317,6 +344,12 @@
     <t xml:space="preserve">eyescream</t>
   </si>
   <si>
+    <t xml:space="preserve">brew of animal whispers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hearty mountain logger's stew</t>
+  </si>
+  <si>
     <t xml:space="preserve">cloudberries</t>
   </si>
   <si>
@@ -341,6 +374,12 @@
     <t xml:space="preserve">medium stamina</t>
   </si>
   <si>
+    <t xml:space="preserve">anti-sting concoction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plains pie picnic</t>
+  </si>
+  <si>
     <t xml:space="preserve">cooked egg</t>
   </si>
   <si>
@@ -407,6 +446,15 @@
     <t xml:space="preserve">minor eitr</t>
   </si>
   <si>
+    <t xml:space="preserve">lightfoot mead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushrooms galore á la mistlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f: 35</t>
+  </si>
+  <si>
     <t xml:space="preserve">b: 30</t>
   </si>
   <si>
@@ -452,58 +500,10 @@
     <t xml:space="preserve">b: 95</t>
   </si>
   <si>
-    <t xml:space="preserve">berserkir mead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tonic of ratatosk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightfoot mead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">draught of vananidir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mead of troll endurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brew of animal whispers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anti-sting concoction</t>
-  </si>
-  <si>
     <t xml:space="preserve">ashlands gourmet bowl</t>
   </si>
   <si>
     <t xml:space="preserve">f: 38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mushrooms galore á la mistlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f: 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plains pie picnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hearty mountain logger's stew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sailor's bounty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swamp dweller's delight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">black forest buffet platter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whole roasted meadow boar</t>
   </si>
   <si>
     <t xml:space="preserve">https://valheim.fandom.com/wiki/Food</t>
@@ -682,7 +682,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,6 +805,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1049,11 +1053,11 @@
   <dimension ref="A1:AMK91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
-      <selection pane="bottomRight" activeCell="T91" activeCellId="0" sqref="T91"/>
+      <selection pane="bottomLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
+      <selection pane="bottomRight" activeCell="I96" activeCellId="0" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1576,61 +1580,69 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="26"/>
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D10" s="2" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="n">
         <f aca="false">D10/J10*10</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="n">
         <f aca="false">F10/J10*10</f>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR10" s="5" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="26" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3" t="n">
         <f aca="false">D11/J11*10</f>
-        <v>6.66666666666667</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3" t="n">
         <f aca="false">F11/J11*10</f>
-        <v>21.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>69</v>
@@ -1639,55 +1651,50 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="X11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="W11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B12" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="C12" s="26"/>
       <c r="D12" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="n">
         <f aca="false">D12/J12*10</f>
-        <v>6</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3" t="n">
         <f aca="false">F12/J12*10</f>
-        <v>18</v>
+        <v>21.3333333333333</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="X12" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="26" t="n">
         <v>2</v>
@@ -1696,18 +1703,18 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3" t="n">
         <f aca="false">D13/J13*10</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G13" s="3" t="n">
         <f aca="false">F13/J13*10</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>69</v>
@@ -1716,18 +1723,18 @@
         <v>2</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="K13" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" s="4" t="n">
-        <v>1.5</v>
+        <v>25</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="26" t="n">
         <v>2</v>
@@ -1736,41 +1743,38 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3" t="n">
         <f aca="false">D14/J14*10</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="n">
         <f aca="false">F14/J14*10</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="O14" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="W14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" s="4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="26" t="n">
         <v>2</v>
@@ -1779,18 +1783,18 @@
         <v>2</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="n">
         <f aca="false">D15/J15*10</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="3" t="n">
         <f aca="false">F15/J15*10</f>
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>71</v>
@@ -1801,10 +1805,10 @@
       <c r="J15" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="M15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4" t="n">
+      <c r="O15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="X15" s="4" t="n">
@@ -1813,53 +1817,66 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="E16" s="3" t="n">
-        <v>5</v>
+        <f aca="false">D16/J16*10</f>
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <f aca="false">F16/J16*10</f>
+        <v>5.2</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L16" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="S16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W16" s="4" t="n">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="26" t="n">
         <v>2</v>
       </c>
       <c r="C17" s="26"/>
-      <c r="G17" s="3" t="n">
-        <v>40</v>
+      <c r="E17" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I17" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="J17" s="2" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="K17" s="4" t="n">
         <v>10</v>
@@ -1867,40 +1884,43 @@
       <c r="L17" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="Y17" s="4" t="n">
-        <v>10</v>
+      <c r="S17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" s="26" t="n">
         <v>2</v>
       </c>
       <c r="C18" s="26"/>
+      <c r="G18" s="3" t="n">
+        <v>40</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K18" s="4" t="n">
         <v>10</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="M18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="4" t="n">
-        <v>5</v>
+      <c r="Y18" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="26" t="n">
         <v>2</v>
@@ -1910,239 +1930,236 @@
         <v>9</v>
       </c>
       <c r="J19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="H20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="K19" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L19" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="W19" s="4" t="n">
+      <c r="K20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="W20" s="4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <f aca="false">D20/J20*10</f>
-        <v>7.2</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <f aca="false">F20/J20*10</f>
-        <v>22</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="N20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" s="28"/>
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D21" s="2" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E21" s="3" t="n">
         <f aca="false">D21/J21*10</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G21" s="3" t="n">
         <f aca="false">F21/J21*10</f>
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y21" s="4" t="n">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="K21" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR21" s="5" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="28" t="s">
+        <v>2</v>
+      </c>
       <c r="D22" s="2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E22" s="3" t="n">
         <f aca="false">D22/J22*10</f>
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G22" s="3" t="n">
         <f aca="false">F22/J22*10</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="K22" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W22" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC22" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="N22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B23" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>2</v>
-      </c>
+      <c r="C23" s="28"/>
       <c r="D23" s="2" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E23" s="3" t="n">
         <f aca="false">D23/J23*10</f>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G23" s="3" t="n">
         <f aca="false">F23/J23*10</f>
-        <v>7.2</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="N23" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z23" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AD23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="28" t="n">
         <v>3</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="2" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E24" s="3" t="n">
         <f aca="false">D24/J24*10</f>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G24" s="3" t="n">
         <f aca="false">F24/J24*10</f>
-        <v>8.5</v>
+        <v>25</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="L24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="4" t="n">
+      <c r="K24" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="28" t="s">
+        <v>2</v>
+      </c>
       <c r="D25" s="2" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3" t="n">
         <f aca="false">D25/J25*10</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G25" s="3" t="n">
         <f aca="false">F25/J25*10</f>
-        <v>9.2</v>
+        <v>7.2</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>71</v>
@@ -2153,707 +2170,740 @@
       <c r="J25" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AF25" s="4" t="n">
+      <c r="N25" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z25" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD25" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="28" t="n">
         <v>3</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E26" s="3" t="n">
         <f aca="false">D26/J26*10</f>
-        <v>26.6666666666667</v>
+        <v>25</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G26" s="3" t="n">
         <f aca="false">F26/J26*10</f>
-        <v>8.66666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" s="28" t="n">
         <v>3</v>
       </c>
       <c r="C27" s="28"/>
+      <c r="D27" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <f aca="false">D27/J27*10</f>
+        <v>28</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <f aca="false">F27/J27*10</f>
+        <v>9.2</v>
+      </c>
       <c r="H27" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L27" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE27" s="4" t="n">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="AF27" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B28" s="28" t="n">
         <v>3</v>
       </c>
       <c r="C28" s="28"/>
+      <c r="D28" s="2" t="n">
+        <v>80</v>
+      </c>
       <c r="E28" s="3" t="n">
+        <f aca="false">D28/J28*10</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <f aca="false">F28/J28*10</f>
+        <v>8.66666666666667</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="H29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="E30" s="3" t="n">
         <v>7.5</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="J30" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="K28" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L28" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="S28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="4" t="n">
+      <c r="K30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <f aca="false">D29/J29*10</f>
-        <v>10</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <f aca="false">F29/J29*10</f>
-        <v>26.6666666666667</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS29" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <f aca="false">D30/J30*10</f>
-        <v>10</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="G30" s="3" t="n">
-        <f aca="false">F30/J30*10</f>
-        <v>30</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS30" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="2" t="n">
-        <v>45</v>
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="E31" s="3" t="n">
         <f aca="false">D31/J31*10</f>
-        <v>22.5</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G31" s="3" t="n">
         <f aca="false">F31/J31*10</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT31" s="4" t="n">
-        <v>1</v>
+        <v>0.33</v>
+      </c>
+      <c r="R31" s="4" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Y31" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG31" s="5" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="2" t="n">
-        <v>33</v>
+      <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="E32" s="3" t="n">
         <f aca="false">D32/J32*10</f>
-        <v>11</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="n">
         <f aca="false">F32/J32*10</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AT32" s="4" t="n">
-        <v>0.5</v>
+        <v>1.66</v>
+      </c>
+      <c r="W32" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH32" s="5" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>65</v>
+      <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="E33" s="3" t="n">
         <f aca="false">D33/J33*10</f>
-        <v>26</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3" t="n">
         <f aca="false">F33/J33*10</f>
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="R33" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT33" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="S33" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V33" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AI33" s="5" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="2" t="n">
-        <v>21</v>
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="E34" s="3" t="n">
         <f aca="false">D34/J34*10</f>
-        <v>8.4</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G34" s="3" t="n">
         <f aca="false">F34/J34*10</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q34" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU34" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA34" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ34" s="5" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" s="32"/>
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D35" s="2" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E35" s="3" t="n">
         <f aca="false">D35/J35*10</f>
-        <v>8.66666666666667</v>
+        <v>7</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G35" s="3" t="n">
         <f aca="false">F35/J35*10</f>
-        <v>26.6666666666667</v>
+        <v>7</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV35" s="4" t="n">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="N35" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z35" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB35" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD35" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AE35" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR35" s="5" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C36" s="32"/>
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="D36" s="2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E36" s="3" t="n">
         <f aca="false">D36/J36*10</f>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G36" s="3" t="n">
         <f aca="false">F36/J36*10</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="P36" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z36" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF36" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ36" s="5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="J36" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW36" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>2</v>
-      </c>
+      <c r="C37" s="30"/>
       <c r="D37" s="2" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E37" s="3" t="n">
         <f aca="false">D37/J37*10</f>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G37" s="3" t="n">
         <f aca="false">F37/J37*10</f>
-        <v>9.2</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS37" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="J37" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="P37" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX37" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E38" s="3" t="n">
         <f aca="false">D38/J38*10</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G38" s="3" t="n">
         <f aca="false">F38/J38*10</f>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS38" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="J38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AV38" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW38" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX38" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="2" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E39" s="3" t="n">
         <f aca="false">D39/J39*10</f>
-        <v>8.33333333333333</v>
+        <v>22.5</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G39" s="3" t="n">
         <f aca="false">F39/J39*10</f>
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z39" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE39" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX39" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT39" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="30" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>2</v>
-      </c>
+      <c r="C40" s="30"/>
       <c r="D40" s="2" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E40" s="3" t="n">
         <f aca="false">D40/J40*10</f>
-        <v>9.2</v>
+        <v>11</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G40" s="3" t="n">
         <f aca="false">F40/J40*10</f>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L40" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT40" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <f aca="false">D41/J41*10</f>
+        <v>26</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <f aca="false">F41/J41*10</f>
+        <v>8.4</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="R41" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT41" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <f aca="false">D42/J42*10</f>
+        <v>8.4</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <f aca="false">F42/J42*10</f>
+        <v>26</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J40" s="2" t="n">
+      <c r="I42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AX40" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="H41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV41" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX41" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="G42" s="3" t="n">
-        <v>80</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K42" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y42" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV42" s="4" t="n">
-        <v>10</v>
+      <c r="Q42" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU42" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="2" t="n">
-        <v>35</v>
+      <c r="A43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="E43" s="3" t="n">
         <f aca="false">D43/J43*10</f>
-        <v>17.5</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="n">
         <f aca="false">F43/J43*10</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ43" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="L43" s="31"/>
+      <c r="X43" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK43" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AS43" s="4" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C44" s="34"/>
+      <c r="A44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D44" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E44" s="3" t="n">
         <f aca="false">D44/J44*10</f>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G44" s="3" t="n">
         <f aca="false">F44/J44*10</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="R44" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X44" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP44" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS44" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT44" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="J44" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C45" s="34"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E45" s="3" t="n">
         <f aca="false">D45/J45*10</f>
-        <v>16.6666666666667</v>
+        <v>8.66666666666667</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G45" s="3" t="n">
         <f aca="false">F45/J45*10</f>
-        <v>16.6666666666667</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>109</v>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>1</v>
@@ -2861,1821 +2911,1775 @@
       <c r="J45" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="BB45" s="4" t="n">
+      <c r="AV45" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C46" s="34"/>
+      <c r="B46" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" s="33"/>
       <c r="D46" s="2" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E46" s="3" t="n">
         <f aca="false">D46/J46*10</f>
-        <v>15.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G46" s="3" t="n">
         <f aca="false">F46/J46*10</f>
-        <v>16.6666666666667</v>
+        <v>8</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="BC46" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW46" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C47" s="34"/>
+      <c r="A47" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>2</v>
+      </c>
       <c r="D47" s="2" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E47" s="3" t="n">
         <f aca="false">D47/J47*10</f>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G47" s="3" t="n">
         <f aca="false">F47/J47*10</f>
-        <v>10</v>
-      </c>
-      <c r="H47" s="7" t="s">
+        <v>9.2</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="P47" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX47" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="n">
         <v>75</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="BH47" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="2" t="n">
-        <v>60</v>
       </c>
       <c r="E48" s="3" t="n">
         <f aca="false">D48/J48*10</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G48" s="3" t="n">
         <f aca="false">F48/J48*10</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I48" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV48" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW48" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX48" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="J48" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="BD48" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C49" s="34"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="2" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E49" s="3" t="n">
         <f aca="false">D49/J49*10</f>
-        <v>30</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G49" s="3" t="n">
         <f aca="false">F49/J49*10</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I49" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z49" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE49" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX49" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="J49" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="BE49" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E50" s="3" t="n">
         <f aca="false">D50/J50*10</f>
-        <v>26.6666666666667</v>
+        <v>9.2</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="G50" s="3" t="n">
         <f aca="false">F50/J50*10</f>
-        <v>8.66666666666667</v>
+        <v>28</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX50" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AW50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE50" s="4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2" t="n">
+      <c r="A51" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="H51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV51" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX51" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="G52" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="E51" s="3" t="n">
-        <f aca="false">D51/J51*10</f>
-        <v>26.6666666666667</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="G51" s="3" t="n">
-        <f aca="false">F51/J51*10</f>
-        <v>8.66666666666667</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I51" s="2" t="n">
+      <c r="H52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K52" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y52" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV52" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="L51" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC51" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="E52" s="3" t="n">
-        <f aca="false">D52/J52*10</f>
-        <v>34</v>
-      </c>
-      <c r="F52" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="G52" s="3" t="n">
-        <f aca="false">F52/J52*10</f>
-        <v>11.2</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="X52" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC52" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE52" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>26</v>
       </c>
       <c r="E53" s="3" t="n">
         <f aca="false">D53/J53*10</f>
-        <v>10.4</v>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G53" s="3" t="n">
         <f aca="false">F53/J53*10</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS53" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="AL53" s="5" t="n">
+        <v>0.16</v>
       </c>
       <c r="AV53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC53" s="4" t="n">
-        <v>1</v>
+        <v>1.66</v>
+      </c>
+      <c r="AY53" s="4" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C54" s="34" t="s">
+      <c r="A54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E54" s="3" t="n">
         <f aca="false">D54/J54*10</f>
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G54" s="3" t="n">
         <f aca="false">F54/J54*10</f>
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ54" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC54" s="4" t="n">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="AO54" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AV54" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW54" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AX54" s="4" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55" s="34" t="n">
+      <c r="A55" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="C55" s="34"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E55" s="3" t="n">
         <f aca="false">D55/J55*10</f>
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G55" s="3" t="n">
         <f aca="false">F55/J55*10</f>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AX55" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI55" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ55" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="34" t="n">
+      <c r="A56" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="C56" s="34" t="s">
-        <v>2</v>
-      </c>
+      <c r="C56" s="35"/>
       <c r="D56" s="2" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E56" s="3" t="n">
         <f aca="false">D56/J56*10</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G56" s="3" t="n">
         <f aca="false">F56/J56*10</f>
-        <v>4.8</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>120</v>
+        <v>10</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J56" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA56" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" s="35"/>
+      <c r="D57" s="2" t="n">
         <v>25</v>
-      </c>
-      <c r="AB56" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB56" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF56" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="2" t="n">
-        <v>27</v>
       </c>
       <c r="E57" s="3" t="n">
         <f aca="false">D57/J57*10</f>
-        <v>10.8</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G57" s="3" t="n">
         <f aca="false">F57/J57*10</f>
-        <v>5.2</v>
-      </c>
-      <c r="H57" s="35" t="s">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>122</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AX57" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG57" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH57" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="BB57" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="34" t="n">
+      <c r="B58" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="C58" s="34" t="s">
-        <v>2</v>
-      </c>
+      <c r="C58" s="35"/>
       <c r="D58" s="2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E58" s="3" t="n">
         <f aca="false">D58/J58*10</f>
-        <v>9.33333333333333</v>
+        <v>15.3333333333333</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G58" s="3" t="n">
         <f aca="false">F58/J58*10</f>
-        <v>4.66666666666667</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>124</v>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="BB58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH58" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC58" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="34" t="n">
+      <c r="A59" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="C59" s="34"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="E59" s="3" t="n">
         <f aca="false">D59/J59*10</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>15</v>
       </c>
       <c r="G59" s="3" t="n">
         <f aca="false">F59/J59*10</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV59" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC59" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF59" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="BH59" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="34" t="n">
+      <c r="A60" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="2" t="n">
+        <v>60</v>
+      </c>
       <c r="E60" s="3" t="n">
-        <v>12.5</v>
+        <f aca="false">D60/J60*10</f>
+        <v>30</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="G60" s="3" t="n">
         <f aca="false">F60/J60*10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L60" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF60" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH60" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="BD60" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="34" t="n">
+      <c r="A61" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="2" t="n">
+        <v>60</v>
+      </c>
       <c r="E61" s="3" t="n">
         <f aca="false">D61/J61*10</f>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="G61" s="3" t="n">
         <f aca="false">F61/J61*10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L61" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB61" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC61" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG61" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="BE61" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C62" s="36"/>
+      <c r="A62" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>2</v>
+      </c>
       <c r="D62" s="2" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E62" s="3" t="n">
         <f aca="false">D62/J62*10</f>
-        <v>20</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G62" s="3" t="n">
         <f aca="false">F62/J62*10</f>
-        <v>20</v>
+        <v>8.66666666666667</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK62" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW62" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD62" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE62" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C63" s="36"/>
+      <c r="A63" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>2</v>
+      </c>
       <c r="D63" s="2" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="E63" s="3" t="n">
         <f aca="false">D63/J63*10</f>
-        <v>10</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G63" s="3" t="n">
         <f aca="false">F63/J63*10</f>
-        <v>10</v>
+        <v>8.66666666666667</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="BL63" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L63" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA63" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC63" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C64" s="36"/>
+      <c r="A64" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>2</v>
+      </c>
       <c r="D64" s="2" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E64" s="3" t="n">
         <f aca="false">D64/J64*10</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G64" s="3" t="n">
         <f aca="false">F64/J64*10</f>
-        <v>20</v>
+        <v>11.2</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="BM64" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="X64" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC64" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE64" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C65" s="37"/>
+      <c r="B65" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>2</v>
+      </c>
       <c r="D65" s="2" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E65" s="3" t="n">
         <f aca="false">D65/J65*10</f>
-        <v>35</v>
+        <v>10.4</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G65" s="3" t="n">
         <f aca="false">F65/J65*10</f>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I65" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS65" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV65" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC65" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="J65" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="BP65" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C66" s="37"/>
+      <c r="C66" s="35" t="s">
+        <v>2</v>
+      </c>
       <c r="D66" s="2" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E66" s="3" t="n">
         <f aca="false">D66/J66*10</f>
-        <v>35</v>
+        <v>11.2</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="G66" s="3" t="n">
         <f aca="false">F66/J66*10</f>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I66" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ66" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC66" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="J66" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="BO66" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C67" s="37"/>
+      <c r="C67" s="35"/>
       <c r="D67" s="2" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E67" s="3" t="n">
         <f aca="false">D67/J67*10</f>
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G67" s="3" t="n">
         <f aca="false">F67/J67*10</f>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX67" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI67" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="J67" s="2" t="n">
+      <c r="C68" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="n">
         <v>25</v>
-      </c>
-      <c r="BQ67" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="2" t="n">
-        <v>95</v>
       </c>
       <c r="E68" s="3" t="n">
         <f aca="false">D68/J68*10</f>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G68" s="3" t="n">
         <f aca="false">F68/J68*10</f>
-        <v>12.8</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>71</v>
+        <v>4.8</v>
+      </c>
+      <c r="H68" s="36" t="s">
+        <v>133</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J68" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="BL68" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM68" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP68" s="5" t="n">
+      <c r="AB68" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB68" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF68" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C69" s="37"/>
+      <c r="A69" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C69" s="35"/>
       <c r="D69" s="2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E69" s="3" t="n">
         <f aca="false">D69/J69*10</f>
-        <v>40</v>
+        <v>10.8</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G69" s="3" t="n">
         <f aca="false">F69/J69*10</f>
-        <v>13.6</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>71</v>
+        <v>5.2</v>
+      </c>
+      <c r="H69" s="36" t="s">
+        <v>135</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J69" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="BK69" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO69" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP69" s="5" t="n">
-        <v>1</v>
+      <c r="AX69" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG69" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH69" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C70" s="37"/>
+      <c r="A70" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>2</v>
+      </c>
       <c r="D70" s="2" t="n">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="E70" s="3" t="n">
         <f aca="false">D70/J70*10</f>
-        <v>35</v>
+        <v>9.33333333333333</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G70" s="3" t="n">
         <f aca="false">F70/J70*10</f>
-        <v>11.6666666666667</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>71</v>
+        <v>4.66666666666667</v>
+      </c>
+      <c r="H70" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AX70" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BM70" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP70" s="5" t="n">
-        <v>2</v>
+      <c r="BB70" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD70" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH70" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="2" t="n">
-        <v>30</v>
-      </c>
+      <c r="A71" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" s="35"/>
       <c r="E71" s="3" t="n">
         <f aca="false">D71/J71*10</f>
-        <v>12</v>
-      </c>
-      <c r="F71" s="2" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G71" s="3" t="n">
         <f aca="false">F71/J71*10</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I71" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="L71" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK71" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM71" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AV71" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC71" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF71" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B72" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="2" t="n">
-        <v>32</v>
-      </c>
+      <c r="A72" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" s="35"/>
       <c r="E72" s="3" t="n">
-        <f aca="false">D72/J72*10</f>
-        <v>12.8</v>
-      </c>
-      <c r="F72" s="2" t="n">
-        <v>95</v>
+        <v>12.5</v>
       </c>
       <c r="G72" s="3" t="n">
         <f aca="false">F72/J72*10</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I72" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L72" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF72" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J72" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS72" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC72" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK72" s="5" t="n">
-        <v>3</v>
+      <c r="BH72" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="2" t="n">
-        <v>34</v>
-      </c>
+      <c r="A73" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" s="35"/>
       <c r="E73" s="3" t="n">
         <f aca="false">D73/J73*10</f>
-        <v>11.3333333333333</v>
-      </c>
-      <c r="F73" s="2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G73" s="3" t="n">
         <f aca="false">F73/J73*10</f>
-        <v>33.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I73" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AX73" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BM73" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BN73" s="5" t="n">
-        <v>1</v>
+        <v>0.17</v>
+      </c>
+      <c r="L73" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB73" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC73" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG73" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B74" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C74" s="37"/>
-      <c r="D74" s="2" t="n">
-        <v>28</v>
+      <c r="A74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="E74" s="3" t="n">
         <f aca="false">D74/J74*10</f>
-        <v>11.2</v>
-      </c>
-      <c r="F74" s="2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G74" s="3" t="n">
         <f aca="false">F74/J74*10</f>
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I74" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="BG74" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK74" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM74" s="5" t="n">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="U74" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BB74" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BJ74" s="4" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="B75" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C75" s="37"/>
+      <c r="A75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D75" s="2" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E75" s="3" t="n">
         <f aca="false">D75/J75*10</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G75" s="3" t="n">
         <f aca="false">F75/J75*10</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB75" s="4" t="n">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="X75" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AN75" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AX75" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BC75" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BD75" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BE75" s="4" t="n">
+        <v>0.1</v>
       </c>
       <c r="BG75" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL75" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM75" s="5" t="n">
-        <v>2</v>
+        <v>0.4</v>
+      </c>
+      <c r="BH75" s="4" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B76" s="37" t="n">
+      <c r="A76" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="38" t="n">
         <v>7</v>
       </c>
       <c r="C76" s="37"/>
       <c r="D76" s="2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E76" s="3" t="n">
         <f aca="false">D76/J76*10</f>
-        <v>10.6666666666667</v>
+        <v>20</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G76" s="3" t="n">
         <f aca="false">F76/J76*10</f>
-        <v>5.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="BB76" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG76" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="BK76" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL76" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>3</v>
+      <c r="A77" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" s="37"/>
+      <c r="D77" s="2" t="n">
+        <v>15</v>
       </c>
       <c r="E77" s="3" t="n">
         <f aca="false">D77/J77*10</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>15</v>
       </c>
       <c r="G77" s="3" t="n">
         <f aca="false">F77/J77*10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>9</v>
+        <v>75</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R77" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Y77" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG77" s="5" t="n">
-        <v>0.33</v>
+        <v>15</v>
+      </c>
+      <c r="BL77" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>3</v>
+      <c r="A78" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C78" s="37"/>
+      <c r="D78" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="E78" s="3" t="n">
         <f aca="false">D78/J78*10</f>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="G78" s="3" t="n">
         <f aca="false">F78/J78*10</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>9</v>
+        <v>144</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L78" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W78" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH78" s="5" t="n">
-        <v>0.16</v>
+        <v>15</v>
+      </c>
+      <c r="BM78" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B79" s="2" t="n">
-        <v>6</v>
+      <c r="B79" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C79" s="38"/>
+      <c r="D79" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="E79" s="3" t="n">
         <f aca="false">D79/J79*10</f>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>24</v>
       </c>
       <c r="G79" s="3" t="n">
         <f aca="false">F79/J79*10</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="J79" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="U79" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="BB79" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="BJ79" s="4" t="n">
-        <v>0.33</v>
+        <v>20</v>
+      </c>
+      <c r="BP79" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B80" s="2" t="n">
-        <v>3</v>
+      <c r="B80" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="E80" s="3" t="n">
         <f aca="false">D80/J80*10</f>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>24</v>
       </c>
       <c r="G80" s="3" t="n">
         <f aca="false">F80/J80*10</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="J80" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S80" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V80" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AI80" s="5" t="n">
-        <v>0.16</v>
+        <v>20</v>
+      </c>
+      <c r="BO80" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="2" t="n">
-        <v>3</v>
+      <c r="B81" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C81" s="38"/>
+      <c r="D81" s="2" t="n">
+        <v>90</v>
       </c>
       <c r="E81" s="3" t="n">
         <f aca="false">D81/J81*10</f>
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="G81" s="3" t="n">
         <f aca="false">F81/J81*10</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="J81" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L81" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AA81" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AJ81" s="5" t="n">
-        <v>0.16</v>
+        <v>25</v>
+      </c>
+      <c r="BQ81" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="B82" s="2" t="n">
-        <v>4</v>
+      <c r="B82" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C82" s="38"/>
+      <c r="D82" s="2" t="n">
+        <v>95</v>
       </c>
       <c r="E82" s="3" t="n">
         <f aca="false">D82/J82*10</f>
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>32</v>
       </c>
       <c r="G82" s="3" t="n">
         <f aca="false">F82/J82*10</f>
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="J82" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L82" s="0"/>
-      <c r="X82" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AK82" s="5" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AS82" s="4" t="n">
-        <v>0.83</v>
+        <v>25</v>
+      </c>
+      <c r="BL82" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM82" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP82" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B83" s="2" t="n">
-        <v>5</v>
+      <c r="B83" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C83" s="38"/>
+      <c r="D83" s="2" t="n">
+        <v>100</v>
       </c>
       <c r="E83" s="3" t="n">
         <f aca="false">D83/J83*10</f>
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>34</v>
       </c>
       <c r="G83" s="3" t="n">
         <f aca="false">F83/J83*10</f>
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="J83" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL83" s="5" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AV83" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AY83" s="4" t="n">
-        <v>0.5</v>
+        <v>25</v>
+      </c>
+      <c r="BK83" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO83" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP83" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="2" t="n">
+      <c r="B84" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C84" s="38"/>
       <c r="D84" s="2" t="n">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E84" s="3" t="n">
         <f aca="false">D84/J84*10</f>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G84" s="3" t="n">
         <f aca="false">F84/J84*10</f>
-        <v>15</v>
+        <v>11.6666666666667</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="I84" s="2" t="n">
         <v>6</v>
       </c>
       <c r="J84" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM84" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AS84" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BC84" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BK84" s="5" t="n">
-        <v>0.6</v>
+        <v>30</v>
+      </c>
+      <c r="AX84" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="BM84" s="5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="BP84" s="5" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A85" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" s="38"/>
       <c r="D85" s="2" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E85" s="3" t="n">
         <f aca="false">D85/J85*10</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G85" s="3" t="n">
         <f aca="false">F85/J85*10</f>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J85" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="X85" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AN85" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AX85" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BC85" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BD85" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BE85" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="BG85" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BH85" s="4" t="n">
-        <v>0.2</v>
+        <v>25</v>
+      </c>
+      <c r="L85" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK85" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM85" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A86" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C86" s="38"/>
       <c r="D86" s="2" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E86" s="3" t="n">
         <f aca="false">D86/J86*10</f>
-        <v>11</v>
+        <v>12.8</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G86" s="3" t="n">
         <f aca="false">F86/J86*10</f>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="I86" s="2" t="n">
         <v>4</v>
       </c>
       <c r="J86" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO86" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AV86" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AW86" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AX86" s="4" t="n">
-        <v>2.3</v>
+        <v>25</v>
+      </c>
+      <c r="AS86" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC86" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK86" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A87" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C87" s="38"/>
       <c r="D87" s="2" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E87" s="3" t="n">
         <f aca="false">D87/J87*10</f>
-        <v>9</v>
+        <v>11.3333333333333</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="G87" s="3" t="n">
         <f aca="false">F87/J87*10</f>
-        <v>9</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J87" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="R87" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X87" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AP87" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AS87" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AT87" s="4" t="n">
-        <v>0.2</v>
+        <v>30</v>
+      </c>
+      <c r="AX87" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM87" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN87" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="A88" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C88" s="38"/>
       <c r="D88" s="2" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E88" s="3" t="n">
         <f aca="false">D88/J88*10</f>
-        <v>9</v>
+        <v>11.2</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G88" s="3" t="n">
         <f aca="false">F88/J88*10</f>
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="H88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="BG88" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK88" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM88" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="I88" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J88" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="P88" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z88" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF88" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AQ88" s="5" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B89" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" s="38"/>
       <c r="D89" s="2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E89" s="3" t="n">
         <f aca="false">D89/J89*10</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G89" s="3" t="n">
         <f aca="false">F89/J89*10</f>
+        <v>6</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB89" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG89" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL89" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM89" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I89" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="N89" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Z89" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB89" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AD89" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AE89" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AR89" s="5" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C90" s="38"/>
       <c r="D90" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E90" s="3" t="n">
         <f aca="false">D90/J90*10</f>
-        <v>7</v>
+        <v>10.6666666666667</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G90" s="3" t="n">
         <f aca="false">F90/J90*10</f>
-        <v>7</v>
+        <v>5.33333333333333</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J90" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="K90" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O90" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W90" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="X90" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z90" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR90" s="5" t="n">
-        <v>0.1</v>
+        <v>30</v>
+      </c>
+      <c r="BB90" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG90" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK90" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL90" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E91" s="3" t="n">
         <f aca="false">D91/J91*10</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G91" s="3" t="n">
         <f aca="false">F91/J91*10</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J91" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="O91" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S91" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AR91" s="5" t="n">
+      <c r="AM91" s="5" t="n">
         <v>0.1</v>
+      </c>
+      <c r="AS91" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BC91" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BK91" s="5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BM91" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BP91" s="5" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -4716,7 +4720,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="40" t="s">
         <v>162</v>
       </c>
       <c r="C5" s="2" t="n">
@@ -4724,7 +4728,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>163</v>
       </c>
       <c r="C6" s="2" t="n">
@@ -4732,7 +4736,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>164</v>
       </c>
       <c r="C7" s="2" t="n">
@@ -4740,7 +4744,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>165</v>
       </c>
       <c r="C8" s="2" t="n">
@@ -4748,7 +4752,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="44" t="s">
         <v>166</v>
       </c>
       <c r="C9" s="2" t="n">
@@ -4756,7 +4760,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>167</v>
       </c>
       <c r="C10" s="2" t="n">
@@ -4764,7 +4768,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="37" t="s">
         <v>168</v>
       </c>
       <c r="C11" s="2" t="n">
